--- a/tools.xlsx
+++ b/tools.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA\Documents\GitHub\projectpaper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="2" r:id="rId1"/>
     <sheet name="Drozer" sheetId="3" r:id="rId2"/>
     <sheet name="Androbugs" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
   <si>
     <t>Runtime Command Checking</t>
   </si>
@@ -582,6 +578,27 @@
   <si>
     <t>Application</t>
   </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Priority Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TSB</t>
+  </si>
 </sst>
 </file>
 
@@ -751,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,7 +803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8124,7 +8141,7 @@
       <c r="EL45" s="7"/>
       <c r="EM45" s="7"/>
     </row>
-    <row r="46" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="10" t="s">
         <v>35</v>
@@ -25185,4 +25202,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA\Documents\GitHub\projectpaper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="220">
   <si>
     <t>Runtime Command Checking</t>
   </si>
@@ -597,7 +602,115 @@
     <t>N</t>
   </si>
   <si>
-    <t>TSB</t>
+    <t>Bank of Scotland</t>
+  </si>
+  <si>
+    <t>This app uses critical function 'Runtime.getRuntime().exec("...")'</t>
+  </si>
+  <si>
+    <t>SSL Implementation Checking (WebViewClient for WebView)</t>
+  </si>
+  <si>
+    <t>Found "exported" components(except for Launcher) for receiving outside applications' actions</t>
+  </si>
+  <si>
+    <t>Getting IMEI and Device ID</t>
+  </si>
+  <si>
+    <t>Getting ANDROID_ID</t>
+  </si>
+  <si>
+    <t>Codes for Checking Android Debug Mode</t>
+  </si>
+  <si>
+    <t>APK Installing Source Checking</t>
+  </si>
+  <si>
+    <t>Getting Signature Code Checking</t>
+  </si>
+  <si>
+    <t>Executing "root" or System Privilege Checking</t>
+  </si>
+  <si>
+    <t>SQLiteDatabase Transaction Deprecated Checking</t>
+  </si>
+  <si>
+    <t>Ignore checking "SQLiteDatabase:beginTransactionNonExclusive" because your set minSdk &gt;= 11</t>
+  </si>
+  <si>
+    <t>Android SQLite Databases Encryption (SQLite Encryption Extension (SEE))</t>
+  </si>
+  <si>
+    <t>This app is "NOT" using SQLite Encryption Extension (SEE) on Android (http://www.sqlite.org/android) to encrypt or decrpyt databases</t>
+  </si>
+  <si>
+    <t>Android SQLite Databases Encryption (SQLCipher)</t>
+  </si>
+  <si>
+    <t>Android Debug Mode Checking</t>
+  </si>
+  <si>
+    <t>Base64 String Encryption</t>
+  </si>
+  <si>
+    <t>No encoded Base64 String or Urls found</t>
+  </si>
+  <si>
+    <t>Key for Android SQLite Databases Encryption</t>
+  </si>
+  <si>
+    <t>KeyStore File Location</t>
+  </si>
+  <si>
+    <t>KeyStore Protection Checking</t>
+  </si>
+  <si>
+    <t>Code Setting Preventing Screenshot Capturing</t>
+  </si>
+  <si>
+    <t>Did not detect this app has code setting preventing screenshot capturing</t>
+  </si>
+  <si>
+    <t>KeyStore Type Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No "dangerous" protection level customized permission found (AndroidManifest.xml)</t>
+  </si>
+  <si>
+    <t>Implicit Service Checking</t>
+  </si>
+  <si>
+    <t>intent-filter of AndroidManifest.xml check OK</t>
+  </si>
+  <si>
+    <t>No default or "normal" protection level customized permission found</t>
+  </si>
+  <si>
+    <t>No exported "ContentProvider" found</t>
+  </si>
+  <si>
+    <t>Did not detect this app has code for sending SMS messages</t>
+  </si>
+  <si>
+    <t>AndroidManifest sharedUserId Checking</t>
+  </si>
+  <si>
+    <t>SSL Implementation Checking (Verifying Host Name in Custom Classes)</t>
+  </si>
+  <si>
+    <t>SSL Implementation Checking (Verifying Host Name in Fields</t>
+  </si>
+  <si>
+    <t>SSL Implementation Checking (Insecure component)</t>
+  </si>
+  <si>
+    <t>Did not detect SSLSocketFactory by insecure method "getInsecure".</t>
+  </si>
+  <si>
+    <t>SSL Implementation Checking (HttpHost)</t>
+  </si>
+  <si>
+    <t>Did not find vulnerable X509Certificate code</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -25206,42 +25319,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -25254,19 +25367,19 @@
       <c r="D2" t="s">
         <v>183</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
+      <c r="E2" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -25274,11 +25387,968 @@
       <c r="D3" t="s">
         <v>183</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="273">
   <si>
     <t>Tools</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Runtime Critical Command Checking</t>
   </si>
   <si>
-    <t>Requesting for "root" permission code sections 'Runtime.getRuntime().exec("su")' found </t>
+    <t>Requesting for "root" permission code sections 'Runtime.getRuntime().exec("su")' found</t>
   </si>
   <si>
     <t>&lt;Hacker&gt; Base64 String Encryption</t>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <r>
-      <t>This app DOES NOT check the validation of SSL Certificate. It allows self-signed, expired or mismatch CN certificates for SSL    connection. </t>
+      <t>This app DOES NOT check the validation of SSL Certificate. It allows self-signed, expired or mismatch CN certificates for SSL    connection.</t>
     </r>
     <r>
       <rPr>
@@ -284,9 +284,6 @@
     <t>Found "setJavaScriptEnabled(true)" in WebView, which could exposed to potential XSS attacks</t>
   </si>
   <si>
-    <t>      </t>
-  </si>
-  <si>
     <t>Notice</t>
   </si>
   <si>
@@ -377,7 +374,7 @@
     <t>This app is "NOT" using SQLCipher(http://sqlcipher.net/) to encrypt or decrpyt databases</t>
   </si>
   <si>
-    <t> &lt;Debug&gt; Android Debug Mode Checking</t>
+    <t>&lt;Debug&gt; Android Debug Mode Checking</t>
   </si>
   <si>
     <t>DEBUG mode is OFF(android:debuggable="false") in AndroidManifest.xml</t>
@@ -551,7 +548,7 @@
     <t>&lt;SSL_Security&gt; SSL Certificate Verification Checking</t>
   </si>
   <si>
-    <t> Unnecessary Permission Checking</t>
+    <t>Unnecessary Permission Checking</t>
   </si>
   <si>
     <t>Permission 'android.permission.ACCESS_MOCK_LOCATION' sets correctly</t>
@@ -572,9 +569,6 @@
     <t>No security issues "MODE_WORLD_READABLE" or "MODE_WORLD_WRITEABLE" found on 'openOrCreateDatabase' or 'openOrCreateDatabase2' or 'getDir' or 'getSharedPreferences' or 'openFileOutput'</t>
   </si>
   <si>
-    <t>           </t>
-  </si>
-  <si>
     <t>Tool</t>
   </si>
   <si>
@@ -584,7 +578,7 @@
     <t>Priority Flag</t>
   </si>
   <si>
-    <t>Problem </t>
+    <t>Problem</t>
   </si>
   <si>
     <t>Bank of Scotland</t>
@@ -665,9 +659,6 @@
     <t>KeyStore Type Checking</t>
   </si>
   <si>
-    <t> No "dangerous" protection level customized permission found (AndroidManifest.xml)</t>
-  </si>
-  <si>
     <t>Implicit Service Checking</t>
   </si>
   <si>
@@ -710,13 +701,13 @@
     <t>activities exported</t>
   </si>
   <si>
-    <t> 1 activities exported (Permission :NULL)</t>
+    <t>1 activities exported (Permission :NULL)</t>
   </si>
   <si>
     <t>broadcast receivers exported</t>
   </si>
   <si>
-    <t> 2 broadcast receivers exported</t>
+    <t>2 broadcast receivers exported</t>
   </si>
   <si>
     <t>content providers exported</t>
@@ -731,15 +722,39 @@
     <t>No exported services</t>
   </si>
   <si>
+    <t>Androwarn</t>
+  </si>
+  <si>
+    <t>Telephony Identifiers Leakage</t>
+  </si>
+  <si>
+    <t>Device Settings Harvesting</t>
+  </si>
+  <si>
+    <t>Location Lookup</t>
+  </si>
+  <si>
+    <t>Connection Interfaces Exfiltration</t>
+  </si>
+  <si>
+    <t>Suspicious Connection Establishment</t>
+  </si>
+  <si>
+    <t>Audio Video Eavesdropping</t>
+  </si>
+  <si>
+    <t>Pim Data Leakage</t>
+  </si>
+  <si>
+    <t>Code Execution (native library)</t>
+  </si>
+  <si>
+    <t>Telephony Services Abuse</t>
+  </si>
+  <si>
     <t>This app is using critical function 'Runtime.getRuntime().exec("...")'</t>
   </si>
   <si>
-    <t> Dynamic Code Loading</t>
-  </si>
-  <si>
-    <t>External storage access found </t>
-  </si>
-  <si>
     <t>Native Library Loading Checking:</t>
   </si>
   <si>
@@ -773,7 +788,7 @@
     <t>The Keystores below are "protected" by password and seem using SSL-pinning (Total: 1)</t>
   </si>
   <si>
-    <t> AndroidManifest Exported Components Checking 2</t>
+    <t>AndroidManifest Exported Components Checking 2</t>
   </si>
   <si>
     <t>Found "exported" components(except for Launcher) for receiving Google's "Android" actions</t>
@@ -785,31 +800,19 @@
     <t>This app is "NOT" using SQLite Encryption Extension (SEE) on Android</t>
   </si>
   <si>
-    <t> Did not detect the vulnerability of "Fragment" dynamically loading into "PreferenceActivity" or "SherlockPreferenceActivity"</t>
-  </si>
-  <si>
     <t>No native library loaded</t>
   </si>
   <si>
     <t>"intent-filter" of AndroidManifest.xml check OK</t>
   </si>
   <si>
-    <t> No exported "ContentProvider" found (AndroidManifest.xml)</t>
-  </si>
-  <si>
-    <t>Did not detect this app has code for sending SMS messages </t>
-  </si>
-  <si>
-    <t> Did not detect critical usage of "WebViewClient"(MITM Vulnerability)</t>
-  </si>
-  <si>
-    <t>Unnecessary Permission Checking</t>
-  </si>
-  <si>
-    <t> 3 activities exported (Permission :NULL)</t>
-  </si>
-  <si>
-    <t> 4 broadcast receivers exported</t>
+    <t>Did not detect critical usage of "WebViewClient"(MITM Vulnerability)</t>
+  </si>
+  <si>
+    <t>3 activities exported (Permission :NULL)</t>
+  </si>
+  <si>
+    <t>4 broadcast receivers exported</t>
   </si>
   <si>
     <t>1 services exported</t>
@@ -827,15 +830,6 @@
     <t>This app DOES NOT check the validation of SSL Certificate</t>
   </si>
   <si>
-    <t> This app has code checking the package signature in the code</t>
-  </si>
-  <si>
-    <t>AndroidManifest Exported Components Checking 2</t>
-  </si>
-  <si>
-    <t>This app is "NOT" using SQLite Encryption Extension (SEE) on Android </t>
-  </si>
-  <si>
     <t>This app is "NOT" using Android SQLite databases</t>
   </si>
   <si>
@@ -860,13 +854,10 @@
     <t>This app does not use "android.uid.system" sharedUserId.</t>
   </si>
   <si>
-    <t>Did not detect critical usage of "WebViewClient"(MITM Vulnerability)</t>
-  </si>
-  <si>
     <t>WebView addJavascriptInterface vulnerabilities not found</t>
   </si>
   <si>
-    <t> 1 broadcast receivers exported</t>
+    <t>1 broadcast receivers exported</t>
   </si>
   <si>
     <t>0 services exported</t>
@@ -1034,7 +1025,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1087,6 +1078,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3371,7 +3366,7 @@
       <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
         <v>69</v>
       </c>
@@ -4436,9 +4431,7 @@
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -4582,19 +4575,19 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -4738,16 +4731,16 @@
     <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -4891,10 +4884,10 @@
     <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="5"/>
@@ -5040,14 +5033,14 @@
     <row r="25" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -5191,16 +5184,16 @@
     <row r="26" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -5344,16 +5337,16 @@
     <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -5497,14 +5490,14 @@
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -5792,19 +5785,19 @@
     </row>
     <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -5948,10 +5941,10 @@
     <row r="31" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
@@ -6097,16 +6090,16 @@
     <row r="32" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="E32" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -6250,16 +6243,16 @@
     <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="D33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -6403,13 +6396,13 @@
     <row r="34" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -6554,13 +6547,13 @@
     <row r="35" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -6705,16 +6698,16 @@
     <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -6858,16 +6851,16 @@
     <row r="37" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -7011,16 +7004,16 @@
     <row r="38" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="E38" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -7164,13 +7157,13 @@
     <row r="39" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -7315,16 +7308,16 @@
     <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="E40" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -7468,13 +7461,13 @@
     <row r="41" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="D41" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -7619,16 +7612,16 @@
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="D42" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -7772,16 +7765,16 @@
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -7925,16 +7918,16 @@
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -8078,16 +8071,16 @@
     <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="D45" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -8231,11 +8224,11 @@
     <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -8380,14 +8373,14 @@
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
       <c r="B47" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -8531,14 +8524,14 @@
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -8682,14 +8675,14 @@
     <row r="49" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
       <c r="B49" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -8833,16 +8826,16 @@
     <row r="50" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
       <c r="B50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="D50" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -8986,16 +8979,16 @@
     <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
       <c r="B51" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="D51" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -9139,10 +9132,10 @@
     <row r="52" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
       <c r="B52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="5"/>
@@ -9288,10 +9281,10 @@
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
       <c r="B53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="5"/>
@@ -9437,10 +9430,10 @@
     <row r="54" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="5"/>
@@ -9586,10 +9579,10 @@
     <row r="55" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
       <c r="B55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="5"/>
@@ -9735,13 +9728,13 @@
     <row r="56" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
       <c r="B56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -9886,13 +9879,13 @@
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
       <c r="B57" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="D57" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -10037,7 +10030,7 @@
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
       <c r="B58" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -10184,13 +10177,13 @@
     <row r="59" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
       <c r="B59" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="D59" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -10335,13 +10328,13 @@
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
       <c r="B60" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -10486,14 +10479,14 @@
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
       <c r="B61" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -10640,7 +10633,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="5"/>
@@ -10786,9 +10779,7 @@
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -10946,10 +10937,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E240" activeCellId="0" sqref="E240"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10964,13 +10955,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
@@ -10979,7 +10970,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10993,13 +10984,13 @@
         <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11013,13 +11004,13 @@
         <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11033,13 +11024,13 @@
         <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11047,13 +11038,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="0"/>
     </row>
@@ -11068,13 +11059,13 @@
         <v>45</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11088,13 +11079,13 @@
         <v>64</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11108,13 +11099,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11128,13 +11119,13 @@
         <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11142,19 +11133,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11162,19 +11153,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11188,13 +11179,13 @@
         <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11208,13 +11199,13 @@
         <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11222,19 +11213,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11242,19 +11233,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11262,17 +11253,17 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,16 +11271,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11297,19 +11288,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11317,19 +11308,19 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11337,19 +11328,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11357,19 +11348,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11377,19 +11368,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11397,19 +11388,19 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11417,19 +11408,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11437,19 +11428,19 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11457,19 +11448,19 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11477,19 +11468,19 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11497,19 +11488,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11517,19 +11508,19 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11537,19 +11528,19 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11557,19 +11548,19 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11577,19 +11568,19 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11597,19 +11588,19 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11617,19 +11608,19 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11637,19 +11628,19 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11657,19 +11648,19 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11677,19 +11668,19 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11697,19 +11688,19 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11717,19 +11708,19 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,19 +11728,19 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11757,19 +11748,19 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11777,19 +11768,19 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11797,19 +11788,19 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11817,19 +11808,19 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11837,19 +11828,19 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11857,19 +11848,19 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11877,19 +11868,19 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11900,16 +11891,16 @@
         <v>76</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,19 +11908,19 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="F49" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11937,19 +11928,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F50" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,19 +11948,19 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F51" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11980,13 +11971,13 @@
         <v>34</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11997,13 +11988,13 @@
         <v>37</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,13 +12005,13 @@
         <v>39</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12031,13 +12022,13 @@
         <v>40</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12045,16 +12036,16 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12062,16 +12053,16 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12079,16 +12070,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12096,193 +12087,88 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12290,19 +12176,19 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12310,39 +12196,39 @@
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12350,39 +12236,37 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E72" s="0"/>
       <c r="F72" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12390,93 +12274,99 @@
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F74" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12484,119 +12374,114 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="E83" s="0"/>
       <c r="F83" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12604,59 +12489,59 @@
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12664,159 +12549,159 @@
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12824,19 +12709,19 @@
         <v>5</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12844,19 +12729,19 @@
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,19 +12749,19 @@
         <v>5</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,19 +12769,19 @@
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12904,19 +12789,19 @@
         <v>5</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,19 +12809,19 @@
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12944,19 +12829,19 @@
         <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12964,79 +12849,79 @@
         <v>5</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13044,195 +12929,219 @@
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>34</v>
+        <v>210</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>37</v>
+        <v>211</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>39</v>
+        <v>212</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>40</v>
+        <v>213</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>223</v>
+        <v>76</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>225</v>
+        <v>168</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>227</v>
+        <v>170</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13240,187 +13149,163 @@
         <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>45</v>
@@ -13429,64 +13314,70 @@
         <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13494,119 +13385,119 @@
         <v>5</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13614,53 +13505,54 @@
         <v>5</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13668,39 +13560,39 @@
         <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13708,39 +13600,39 @@
         <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13748,19 +13640,19 @@
         <v>5</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13768,67 +13660,65 @@
         <v>5</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>24</v>
@@ -13837,7 +13727,7 @@
         <v>247</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13845,19 +13735,19 @@
         <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13865,19 +13755,19 @@
         <v>5</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13885,179 +13775,176 @@
         <v>5</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F158" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C159" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14065,19 +13952,19 @@
         <v>5</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14085,39 +13972,39 @@
         <v>5</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14125,19 +14012,19 @@
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14145,19 +14032,19 @@
         <v>5</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14165,19 +14052,19 @@
         <v>5</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14185,19 +14072,19 @@
         <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14205,19 +14092,19 @@
         <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14225,19 +14112,19 @@
         <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14245,355 +14132,355 @@
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>37</v>
+        <v>155</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>39</v>
+        <v>210</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>40</v>
+        <v>211</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,39 +14488,39 @@
         <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14641,79 +14528,79 @@
         <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14721,19 +14608,19 @@
         <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14741,19 +14628,19 @@
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14761,19 +14648,19 @@
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14781,59 +14668,59 @@
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14841,79 +14728,79 @@
         <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14921,19 +14808,19 @@
         <v>5</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14941,99 +14828,99 @@
         <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15041,39 +14928,39 @@
         <v>5</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15081,19 +14968,19 @@
         <v>5</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15101,19 +14988,19 @@
         <v>5</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15121,19 +15008,19 @@
         <v>5</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15141,39 +15028,39 @@
         <v>5</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15181,59 +15068,59 @@
         <v>5</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15241,19 +15128,19 @@
         <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15261,19 +15148,19 @@
         <v>5</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15281,59 +15168,59 @@
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15341,39 +15228,39 @@
         <v>5</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15381,178 +15268,357 @@
         <v>5</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>40</v>
+        <v>215</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>223</v>
+        <v>168</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>225</v>
+        <v>170</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>227</v>
+        <v>172</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Tools" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Drozer" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Androbugs" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Tools" sheetId="1" r:id="rId1"/>
+    <sheet name="Drozer" sheetId="2" r:id="rId2"/>
+    <sheet name="Androbugs" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="278">
   <si>
     <t>Tools</t>
   </si>
@@ -862,15 +861,27 @@
   <si>
     <t>0 services exported</t>
   </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>Buffer Overflow?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -879,22 +890,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -902,7 +898,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -932,137 +928,381 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.66326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.3316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="9.6640625"/>
+    <col min="2" max="2" width="17.44140625"/>
+    <col min="3" max="3" width="33" style="1"/>
+    <col min="4" max="4" width="35.33203125" style="1"/>
+    <col min="5" max="5" width="80.33203125"/>
+    <col min="6" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,15 +1319,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1096,55 +1336,55 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1154,11 +1394,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1166,40 +1406,32 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="28.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="28.109375"/>
+    <col min="2" max="5" width="28.77734375"/>
+    <col min="6" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1217,7 +1449,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1225,190 +1457,182 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="49.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="55.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="10.109375"/>
+    <col min="2" max="3" width="49.88671875" style="1"/>
+    <col min="4" max="4" width="55.6640625" style="1"/>
+    <col min="5" max="5" width="54.5546875"/>
+    <col min="6" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:143" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
@@ -1559,7 +1783,7 @@
       <c r="EL1" s="5"/>
       <c r="EM1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:143" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>43</v>
@@ -1708,7 +1932,7 @@
       <c r="EL2" s="5"/>
       <c r="EM2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:143" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1853,7 +2077,7 @@
       <c r="EL3" s="5"/>
       <c r="EM3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -2008,7 +2232,7 @@
       <c r="EL4" s="5"/>
       <c r="EM4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -2157,7 +2381,7 @@
       <c r="EL5" s="5"/>
       <c r="EM5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
         <v>50</v>
@@ -2308,7 +2532,7 @@
       <c r="EL6" s="5"/>
       <c r="EM6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="11" t="s">
         <v>52</v>
@@ -2459,7 +2683,7 @@
       <c r="EL7" s="5"/>
       <c r="EM7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="11" t="s">
         <v>54</v>
@@ -2612,7 +2836,7 @@
       <c r="EL8" s="5"/>
       <c r="EM8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="11" t="s">
         <v>57</v>
@@ -2763,7 +2987,7 @@
       <c r="EL9" s="5"/>
       <c r="EM9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="11" t="s">
         <v>60</v>
@@ -2912,7 +3136,7 @@
       <c r="EL10" s="5"/>
       <c r="EM10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="11" t="s">
         <v>62</v>
@@ -3061,7 +3285,7 @@
       <c r="EL11" s="5"/>
       <c r="EM11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3206,7 +3430,7 @@
       <c r="EL12" s="5"/>
       <c r="EM12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
@@ -3361,7 +3585,7 @@
       <c r="EL13" s="5"/>
       <c r="EM13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="11" t="s">
         <v>68</v>
@@ -3512,7 +3736,7 @@
       <c r="EL14" s="5"/>
       <c r="EM14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="11" t="s">
         <v>70</v>
@@ -3665,7 +3889,7 @@
       <c r="EL15" s="5"/>
       <c r="EM15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="11" t="s">
         <v>72</v>
@@ -3818,7 +4042,7 @@
       <c r="EL16" s="5"/>
       <c r="EM16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="11" t="s">
         <v>74</v>
@@ -3971,7 +4195,7 @@
       <c r="EL17" s="5"/>
       <c r="EM17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="11" t="s">
         <v>76</v>
@@ -4122,7 +4346,7 @@
       <c r="EL18" s="5"/>
       <c r="EM18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:143" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="11" t="s">
         <v>79</v>
@@ -4275,7 +4499,7 @@
       <c r="EL19" s="5"/>
       <c r="EM19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="11" t="s">
         <v>82</v>
@@ -4428,7 +4652,7 @@
       <c r="EL20" s="5"/>
       <c r="EM20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4573,7 +4797,7 @@
       <c r="EL21" s="5"/>
       <c r="EM21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
@@ -4728,7 +4952,7 @@
       <c r="EL22" s="5"/>
       <c r="EM22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="11" t="s">
         <v>87</v>
@@ -4881,7 +5105,7 @@
       <c r="EL23" s="5"/>
       <c r="EM23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="11" t="s">
         <v>90</v>
@@ -5030,7 +5254,7 @@
       <c r="EL24" s="5"/>
       <c r="EM24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="11" t="s">
         <v>92</v>
@@ -5181,7 +5405,7 @@
       <c r="EL25" s="5"/>
       <c r="EM25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="11" t="s">
         <v>94</v>
@@ -5334,7 +5558,7 @@
       <c r="EL26" s="5"/>
       <c r="EM26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="11" t="s">
         <v>98</v>
@@ -5487,7 +5711,7 @@
       <c r="EL27" s="5"/>
       <c r="EM27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="11" t="s">
         <v>101</v>
@@ -5638,7 +5862,7 @@
       <c r="EL28" s="5"/>
       <c r="EM28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5783,7 +6007,7 @@
       <c r="EL29" s="5"/>
       <c r="EM29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>103</v>
       </c>
@@ -5938,7 +6162,7 @@
       <c r="EL30" s="5"/>
       <c r="EM30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="11" t="s">
         <v>107</v>
@@ -6087,7 +6311,7 @@
       <c r="EL31" s="5"/>
       <c r="EM31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="11" t="s">
         <v>109</v>
@@ -6240,7 +6464,7 @@
       <c r="EL32" s="5"/>
       <c r="EM32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="11" t="s">
         <v>112</v>
@@ -6393,7 +6617,7 @@
       <c r="EL33" s="5"/>
       <c r="EM33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="11" t="s">
         <v>114</v>
@@ -6544,7 +6768,7 @@
       <c r="EL34" s="5"/>
       <c r="EM34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="11" t="s">
         <v>117</v>
@@ -6695,7 +6919,7 @@
       <c r="EL35" s="5"/>
       <c r="EM35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="11" t="s">
         <v>119</v>
@@ -6848,7 +7072,7 @@
       <c r="EL36" s="5"/>
       <c r="EM36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="11" t="s">
         <v>121</v>
@@ -7001,7 +7225,7 @@
       <c r="EL37" s="5"/>
       <c r="EM37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="11" t="s">
         <v>124</v>
@@ -7154,7 +7378,7 @@
       <c r="EL38" s="5"/>
       <c r="EM38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="11" t="s">
         <v>127</v>
@@ -7305,7 +7529,7 @@
       <c r="EL39" s="5"/>
       <c r="EM39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
         <v>130</v>
@@ -7458,7 +7682,7 @@
       <c r="EL40" s="5"/>
       <c r="EM40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
         <v>133</v>
@@ -7609,7 +7833,7 @@
       <c r="EL41" s="5"/>
       <c r="EM41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
         <v>135</v>
@@ -7762,7 +7986,7 @@
       <c r="EL42" s="5"/>
       <c r="EM42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="11" t="s">
         <v>137</v>
@@ -7915,7 +8139,7 @@
       <c r="EL43" s="5"/>
       <c r="EM43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
         <v>139</v>
@@ -8068,7 +8292,7 @@
       <c r="EL44" s="5"/>
       <c r="EM44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="11" t="s">
         <v>141</v>
@@ -8221,7 +8445,7 @@
       <c r="EL45" s="5"/>
       <c r="EM45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="11" t="s">
         <v>143</v>
@@ -8370,7 +8594,7 @@
       <c r="EL46" s="5"/>
       <c r="EM46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="11" t="s">
         <v>145</v>
@@ -8521,7 +8745,7 @@
       <c r="EL47" s="5"/>
       <c r="EM47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="11" t="s">
         <v>147</v>
@@ -8672,7 +8896,7 @@
       <c r="EL48" s="5"/>
       <c r="EM48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="11" t="s">
         <v>149</v>
@@ -8823,7 +9047,7 @@
       <c r="EL49" s="5"/>
       <c r="EM49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="11" t="s">
         <v>151</v>
@@ -8976,7 +9200,7 @@
       <c r="EL50" s="5"/>
       <c r="EM50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="11" t="s">
         <v>153</v>
@@ -9129,7 +9353,7 @@
       <c r="EL51" s="5"/>
       <c r="EM51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="11" t="s">
         <v>155</v>
@@ -9278,7 +9502,7 @@
       <c r="EL52" s="5"/>
       <c r="EM52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="11" t="s">
         <v>157</v>
@@ -9427,7 +9651,7 @@
       <c r="EL53" s="5"/>
       <c r="EM53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="11" t="s">
         <v>159</v>
@@ -9576,7 +9800,7 @@
       <c r="EL54" s="5"/>
       <c r="EM54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="11" t="s">
         <v>161</v>
@@ -9725,7 +9949,7 @@
       <c r="EL55" s="5"/>
       <c r="EM55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="11" t="s">
         <v>163</v>
@@ -9876,7 +10100,7 @@
       <c r="EL56" s="5"/>
       <c r="EM56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="11" t="s">
         <v>165</v>
@@ -10027,7 +10251,7 @@
       <c r="EL57" s="5"/>
       <c r="EM57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="11" t="s">
         <v>167</v>
@@ -10174,7 +10398,7 @@
       <c r="EL58" s="5"/>
       <c r="EM58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:143" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="11" t="s">
         <v>168</v>
@@ -10325,7 +10549,7 @@
       <c r="EL59" s="5"/>
       <c r="EM59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="11" t="s">
         <v>170</v>
@@ -10476,7 +10700,7 @@
       <c r="EL60" s="5"/>
       <c r="EM60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="11" t="s">
         <v>172</v>
@@ -10627,7 +10851,7 @@
       <c r="EL61" s="5"/>
       <c r="EM61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="11" t="s">
         <v>52</v>
@@ -10776,7 +11000,7 @@
       <c r="EL62" s="5"/>
       <c r="EM62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -10922,38 +11146,30 @@
       <c r="EM63" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F245"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K247"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="52.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="21"/>
+    <col min="2" max="2" width="37.21875" style="1"/>
+    <col min="3" max="3" width="25.33203125"/>
+    <col min="4" max="4" width="14.77734375"/>
+    <col min="5" max="5" width="52.88671875" style="1"/>
+    <col min="6" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>175</v>
       </c>
@@ -10972,4660 +11188,4679 @@
       <c r="F1" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="G1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>179</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>179</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>179</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>179</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>179</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>179</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="F35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="F36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="F37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="F39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="F40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="F41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="F43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="F47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="F49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="F50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>179</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="F52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>179</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="F53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>179</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="F54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>179</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="F56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>179</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="F57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="F58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>179</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="F59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>226</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>226</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>226</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>226</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>226</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>226</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>226</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>226</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>226</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0" t="s">
+      <c r="E72"/>
+      <c r="F72" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="F82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F85" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="F85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F86" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="F86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F87" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="F87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="F88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F89" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="F89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>27</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F90" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="F90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="F91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="F92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F93" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="F93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F94" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="F94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="F95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="F96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>103</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F97" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="F97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F98" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="F98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>103</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F99" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="F99" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="F100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F101" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="F101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F102" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="F102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="F103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>103</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="F104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F105" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="F105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F106" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="F106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F107" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="F107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>103</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F108" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="F108" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F109" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="F109" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>103</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F110" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="F110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>103</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F111" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="F111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>103</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F112" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="F112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F113" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="F113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="F114" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="F115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>103</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F116" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="F116" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F117" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="F117" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>103</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F118" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="F118" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F119" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="F119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F120" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="F120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F121" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="F121" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" t="s">
         <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F122" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="F122" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F123" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="F123" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F124" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="F124" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" t="s">
         <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F125" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="F125" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F126" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="F126" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>45</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" t="s">
         <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>45</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" t="s">
         <v>24</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" t="s">
         <v>24</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" t="s">
         <v>24</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F130" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>5</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>45</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" t="s">
         <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>45</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>45</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" t="s">
         <v>24</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" t="s">
         <v>24</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>45</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" t="s">
         <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>45</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" t="s">
         <v>24</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="F136" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>64</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>64</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" t="s">
         <v>24</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>64</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" t="s">
         <v>24</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F139" s="0" t="s">
+      <c r="F139" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>64</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" t="s">
         <v>24</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>64</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" t="s">
         <v>24</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" t="s">
         <v>64</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" t="s">
         <v>24</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>84</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" t="s">
         <v>24</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>5</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>84</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" t="s">
         <v>24</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>84</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" t="s">
         <v>24</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="F145" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>84</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" t="s">
         <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F147" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="F147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" t="s">
         <v>24</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F148" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="F148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>84</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" t="s">
         <v>24</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F149" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="F149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>5</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" t="s">
         <v>84</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" t="s">
         <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F150" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="F150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>5</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" t="s">
         <v>84</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" t="s">
         <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="F151" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>103</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" t="s">
         <v>24</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F152" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="F152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>103</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" t="s">
         <v>24</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F153" s="0" t="s">
+      <c r="F153" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>5</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>103</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" t="s">
         <v>24</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F154" s="0" t="s">
+      <c r="F154" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>103</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>103</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F156" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="F156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>103</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" t="s">
         <v>24</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F157" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="F157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>103</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" t="s">
         <v>24</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>103</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" t="s">
         <v>24</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F159" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="F159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>103</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" t="s">
         <v>24</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F160" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="F160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" t="s">
         <v>24</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F161" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="F161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>5</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" t="s">
         <v>103</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" t="s">
         <v>24</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F162" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="F162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" t="s">
         <v>103</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" t="s">
         <v>24</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F163" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="F163" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>5</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" t="s">
         <v>103</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" t="s">
         <v>24</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F164" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="F164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>5</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" t="s">
         <v>103</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" t="s">
         <v>24</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F165" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="F165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>103</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" t="s">
         <v>24</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F166" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="F166" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" t="s">
         <v>103</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" t="s">
         <v>24</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F167" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="F167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>103</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F168" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="F168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>103</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F169" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="F169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" t="s">
         <v>103</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F170" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="F170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" t="s">
         <v>103</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" t="s">
         <v>24</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F171" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="F171" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>5</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" t="s">
         <v>103</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" t="s">
         <v>24</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F172" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="F172" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>5</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F173" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="F173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" t="s">
         <v>103</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" t="s">
         <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F174" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="F174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>5</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" t="s">
         <v>103</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F175" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="F175" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>5</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" t="s">
         <v>103</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" t="s">
         <v>24</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F176" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="F176" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" t="s">
         <v>103</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" t="s">
         <v>24</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F177" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="F177" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>5</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" t="s">
         <v>103</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" t="s">
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F178" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="F178" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" t="s">
         <v>103</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" t="s">
         <v>24</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F179" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="F179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>16</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" t="s">
         <v>24</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F180" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="F180" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>16</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" t="s">
         <v>24</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F181" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="F181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>16</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" t="s">
         <v>24</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F182" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="F182" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>16</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" t="s">
         <v>24</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F183" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="F183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>16</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" t="s">
         <v>24</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F184" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="F184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>16</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" t="s">
         <v>24</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F185" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="F185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>16</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" t="s">
         <v>24</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F186" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="F186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>16</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" t="s">
         <v>24</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F187" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="F187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" t="s">
         <v>45</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" t="s">
         <v>26</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F188" s="0" t="s">
+      <c r="F188" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" t="s">
         <v>45</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" t="s">
         <v>26</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F189" s="0" t="s">
+      <c r="F189" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" t="s">
         <v>45</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" t="s">
         <v>26</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="F190" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" t="s">
         <v>45</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" t="s">
         <v>26</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F191" s="0" t="s">
+      <c r="F191" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" t="s">
         <v>45</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" t="s">
         <v>26</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F192" s="0" t="s">
+      <c r="F192" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" t="s">
         <v>45</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F193" s="0" t="s">
+      <c r="F193" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" t="s">
         <v>64</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" t="s">
         <v>26</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" t="s">
         <v>64</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" t="s">
         <v>26</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" t="s">
         <v>64</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" t="s">
         <v>26</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" t="s">
         <v>64</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" t="s">
         <v>26</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" t="s">
         <v>84</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" t="s">
         <v>26</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" t="s">
         <v>84</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" t="s">
         <v>26</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F199" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="F199" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" t="s">
         <v>84</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" t="s">
         <v>26</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F200" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="F200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" t="s">
         <v>84</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" t="s">
         <v>26</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F201" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="F201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" t="s">
         <v>103</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" t="s">
         <v>26</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F202" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="F202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" t="s">
         <v>103</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" t="s">
         <v>26</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F203" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="F203" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>5</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" t="s">
         <v>103</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="D204" t="s">
         <v>26</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F204" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="F204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" t="s">
         <v>103</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" t="s">
         <v>26</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F205" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="F205" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>5</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" t="s">
         <v>103</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" t="s">
         <v>26</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F206" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="F206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>5</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" t="s">
         <v>103</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" t="s">
         <v>26</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F207" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="F207" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>5</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" t="s">
         <v>103</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" t="s">
         <v>26</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F208" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="F208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>5</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" t="s">
         <v>103</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="D209" t="s">
         <v>26</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F209" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="F209" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>5</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" t="s">
         <v>103</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="D210" t="s">
         <v>26</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F210" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="F210" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>5</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" t="s">
         <v>103</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" t="s">
         <v>26</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F211" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="F211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>5</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" t="s">
         <v>103</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D212" t="s">
         <v>26</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F212" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="F212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>5</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" t="s">
         <v>103</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D213" t="s">
         <v>26</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F213" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="F213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>5</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" t="s">
         <v>103</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="D214" t="s">
         <v>26</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F214" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="F214" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>5</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" t="s">
         <v>103</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" t="s">
         <v>26</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F215" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="F215" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>5</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" t="s">
         <v>103</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D216" t="s">
         <v>26</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F216" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="F216" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>5</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" t="s">
         <v>103</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="D217" t="s">
         <v>26</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F217" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="F217" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>5</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" t="s">
         <v>103</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="D218" t="s">
         <v>26</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F218" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="F218" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>5</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" t="s">
         <v>103</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" t="s">
         <v>26</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F219" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="F219" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" t="s">
         <v>103</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D220" t="s">
         <v>26</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F220" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="F220" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>5</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" t="s">
         <v>103</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="D221" t="s">
         <v>26</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F221" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="F221" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" t="s">
         <v>103</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" t="s">
         <v>26</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F222" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="F222" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>5</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" t="s">
         <v>103</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" t="s">
         <v>26</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F223" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="F223" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>5</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" t="s">
         <v>103</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="D224" t="s">
         <v>26</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F224" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="F224" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>5</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" t="s">
         <v>103</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" t="s">
         <v>26</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F225" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="F225" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" t="s">
         <v>103</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" t="s">
         <v>26</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F226" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="F226" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>5</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" t="s">
         <v>103</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="D227" t="s">
         <v>26</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F227" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="F227" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>5</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" t="s">
         <v>103</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" t="s">
         <v>26</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F228" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="F228" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" t="s">
         <v>103</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="D229" t="s">
         <v>26</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F229" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="F229" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>5</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" t="s">
         <v>103</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="D230" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F230" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="F230" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>5</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" t="s">
         <v>103</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="D231" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F231" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="F231" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" t="s">
         <v>103</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D232" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F232" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="F232" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" t="s">
         <v>103</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="D233" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F233" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="F233" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>5</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" t="s">
         <v>103</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="D234" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F234" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="F234" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>5</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" t="s">
         <v>103</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="D235" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F235" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="F235" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>5</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" t="s">
         <v>103</v>
       </c>
-      <c r="D236" s="0" t="s">
+      <c r="D236" t="s">
         <v>26</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F236" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="F236" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>5</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" t="s">
         <v>103</v>
       </c>
-      <c r="D237" s="0" t="s">
+      <c r="D237" t="s">
         <v>26</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F237" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="F237" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>16</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D238" s="0" t="s">
+      <c r="D238" t="s">
         <v>26</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F238" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="F238" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>16</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D239" s="0" t="s">
+      <c r="D239" t="s">
         <v>26</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F239" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="F239" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>16</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D240" s="0" t="s">
+      <c r="D240" t="s">
         <v>26</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F240" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="F240" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>16</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D241" s="0" t="s">
+      <c r="D241" t="s">
         <v>26</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F241" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="F241" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>16</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="D242" t="s">
         <v>26</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F242" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="F242" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>16</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="D243" t="s">
         <v>26</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F243" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="F243" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>16</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="D244" t="s">
         <v>26</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F244" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="F244" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>16</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D245" s="0" t="s">
+      <c r="D245" t="s">
         <v>26</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F245" s="0" t="s">
-        <v>186</v>
+      <c r="F245" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <f>+COUNTIF(F2:F245,"Y")</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA\Documents\GitHub\projectpaper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
     <sheet name="Drozer" sheetId="2" r:id="rId2"/>
     <sheet name="Androbugs" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="299">
   <si>
     <t>Tools</t>
   </si>
@@ -577,9 +583,6 @@
     <t>Priority Flag</t>
   </si>
   <si>
-    <t>Problem</t>
-  </si>
-  <si>
     <t>Bank of Scotland</t>
   </si>
   <si>
@@ -721,36 +724,6 @@
     <t>No exported services</t>
   </si>
   <si>
-    <t>Androwarn</t>
-  </si>
-  <si>
-    <t>Telephony Identifiers Leakage</t>
-  </si>
-  <si>
-    <t>Device Settings Harvesting</t>
-  </si>
-  <si>
-    <t>Location Lookup</t>
-  </si>
-  <si>
-    <t>Connection Interfaces Exfiltration</t>
-  </si>
-  <si>
-    <t>Suspicious Connection Establishment</t>
-  </si>
-  <si>
-    <t>Audio Video Eavesdropping</t>
-  </si>
-  <si>
-    <t>Pim Data Leakage</t>
-  </si>
-  <si>
-    <t>Code Execution (native library)</t>
-  </si>
-  <si>
-    <t>Telephony Services Abuse</t>
-  </si>
-  <si>
     <t>This app is using critical function 'Runtime.getRuntime().exec("...")'</t>
   </si>
   <si>
@@ -862,26 +835,122 @@
     <t>0 services exported</t>
   </si>
   <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>User Interface</t>
-  </si>
-  <si>
     <t>Injection</t>
   </si>
   <si>
-    <t>Buffer Overflow?</t>
+    <t>Danske</t>
+  </si>
+  <si>
+    <t>Found Base64 encoding "String(s)" (Total: 2)</t>
+  </si>
+  <si>
+    <t>DO NOT use "handler.proceed();" inside those methods in extended "WebViewClient", which allows the connection even if the SSL Certificate is invalid (MITM Vulnerability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External storage access found </t>
+  </si>
+  <si>
+    <t>Please make sure this app has the conditions to check the validation of SSL Certificate</t>
+  </si>
+  <si>
+    <t>Everything you delete may be recovered by any user or attacker, especially rooted devices</t>
+  </si>
+  <si>
+    <t>This app has code checking APK installer sources(e.g. from Google Play, from Amazon, etc.)</t>
+  </si>
+  <si>
+    <t>Found "exported" components(except for Launcher) for receiving Google's "Android" actions (AndroidManifest.xml)</t>
+  </si>
+  <si>
+    <t>This app has disabled Adb Backup</t>
+  </si>
+  <si>
+    <t>This app is not using critical function 'Runtime.getRuntime().exec("...")'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not find codes checking "root" permission(su) or getting system permission </t>
+  </si>
+  <si>
+    <t>Framework - MonoDroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not find any possible BKS keystores or certificate keystore file </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PermissionGroup in permission tag of AndroidManifest sets correctly</t>
+  </si>
+  <si>
+    <t>Did not detect this app is getting the "device id(IMEI)" by "TelephonyManager.getDeviceId()" approach</t>
+  </si>
+  <si>
+    <t>Did not detect this app is getting the 64-bit number "Settings.Secure.ANDROID_ID"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did not detect this app has code for sending SMS messages (sendDataMessage, sendMultipartTextMessage or sendTextMessage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SSL Implementation Checking (HttpHost)</t>
+  </si>
+  <si>
+    <t>SSL Security</t>
+  </si>
+  <si>
+    <t>Sensitive Information</t>
+  </si>
+  <si>
+    <t>WebView</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>KeyStore</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>content URIs</t>
+  </si>
+  <si>
+    <t>Exported activities/services</t>
+  </si>
+  <si>
+    <t>No of apps that have the vulnerability</t>
+  </si>
+  <si>
+    <t>3 SSL checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSL Implementation Checking </t>
+  </si>
+  <si>
+    <t>2 Sensitive Information checks</t>
+  </si>
+  <si>
+    <t>Other checks</t>
+  </si>
+  <si>
+    <t>For 5 applications</t>
+  </si>
+  <si>
+    <t>6 Permission checks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -911,6 +980,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -954,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -982,8 +1058,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,6 +1078,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1042,7 +1129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,7 +1164,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11153,10 +11240,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K247"/>
+  <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11166,10 +11255,15 @@
     <col min="3" max="3" width="25.33203125"/>
     <col min="4" max="4" width="14.77734375"/>
     <col min="5" max="5" width="52.88671875" style="1"/>
-    <col min="6" max="1025" width="8.77734375"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375"/>
+    <col min="15" max="16" width="8.77734375"/>
+    <col min="17" max="17" width="8.77734375" customWidth="1"/>
+    <col min="18" max="1031" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>175</v>
       </c>
@@ -11186,25 +11280,43 @@
         <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11215,16 +11327,16 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>180</v>
       </c>
-      <c r="F2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11235,16 +11347,16 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11255,31 +11367,30 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11290,16 +11401,16 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -11310,16 +11421,16 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -11330,16 +11441,16 @@
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -11350,56 +11461,56 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -11410,16 +11521,16 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -11430,16 +11541,16 @@
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -11450,1340 +11561,1436 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="N14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="M23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="M24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="N27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="N28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="L30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="L31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
         <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
         <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="N33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="L34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
         <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="N35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="K36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="K37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="N38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="N39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="K40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="N41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
         <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="N42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="N43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="N44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
         <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
         <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="G49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
         <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="O53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D59" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="Q60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>226</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>226</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>226</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>226</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>226</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F69" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="E72"/>
-      <c r="F72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="N73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="M74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J77" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="N79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F81" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="M81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="M82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
-      <c r="E83"/>
-      <c r="F83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="N84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="N85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="N86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="M87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
@@ -12792,18 +12999,18 @@
         <v>27</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F88" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="L88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
         <v>103</v>
@@ -12812,18 +13019,18 @@
         <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="L89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
@@ -12832,18 +13039,18 @@
         <v>27</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="J90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
@@ -12852,18 +13059,18 @@
         <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="N91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
         <v>103</v>
@@ -12872,18 +13079,18 @@
         <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="L92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
         <v>103</v>
@@ -12892,18 +13099,18 @@
         <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="N93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
         <v>103</v>
@@ -12912,18 +13119,18 @@
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="K94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
         <v>103</v>
@@ -12932,18 +13139,18 @@
         <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="K95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -12952,18 +13159,18 @@
         <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="N96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
         <v>103</v>
@@ -12972,18 +13179,18 @@
         <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="N97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
         <v>103</v>
@@ -12992,18 +13199,18 @@
         <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="K98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
         <v>103</v>
@@ -13012,18 +13219,18 @@
         <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="N99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>103</v>
@@ -13032,18 +13239,18 @@
         <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="N100" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -13052,18 +13259,18 @@
         <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="N101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
@@ -13072,18 +13279,18 @@
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
         <v>103</v>
@@ -13092,18 +13299,18 @@
         <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C104" t="s">
         <v>103</v>
@@ -13112,18 +13319,18 @@
         <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F104" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
@@ -13132,18 +13339,18 @@
         <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
         <v>103</v>
@@ -13152,18 +13359,18 @@
         <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
         <v>103</v>
@@ -13172,18 +13379,18 @@
         <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F107" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="G107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
         <v>103</v>
@@ -13192,18 +13399,18 @@
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F108" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
         <v>103</v>
@@ -13212,18 +13419,18 @@
         <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="M109" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
         <v>103</v>
@@ -13232,314 +13439,311 @@
         <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="K110" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F111" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="O111" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F112" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P112" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F113" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F114" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C117" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F117" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C118" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F118" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>39</v>
+        <v>196</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="J121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F122" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="L122" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>218</v>
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F123" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="N123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>16</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F124" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
+      </c>
+      <c r="C125" t="s">
+        <v>45</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F125" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>224</v>
+        <v>76</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F126" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="G126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
         <v>45</v>
@@ -13548,18 +13752,18 @@
         <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F127" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="K127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C128" t="s">
         <v>45</v>
@@ -13568,293 +13772,286 @@
         <v>24</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F129" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D130" t="s">
         <v>24</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F130" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="N130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D131" t="s">
         <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F131" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F132" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
         <v>24</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D134" t="s">
         <v>24</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="N135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="F136" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
       </c>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E137" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F138" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D139" t="s">
         <v>24</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="J139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C140" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D140" t="s">
         <v>24</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F140" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="L140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D142" t="s">
         <v>24</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J142" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="C143" t="s">
         <v>84</v>
@@ -13863,13 +14060,13 @@
         <v>24</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F143" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="N143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -13877,159 +14074,161 @@
         <v>190</v>
       </c>
       <c r="C144" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="M144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C145" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
         <v>24</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="M145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
         <v>24</v>
       </c>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C147" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D147" t="s">
         <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F147" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D148" t="s">
         <v>24</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F148" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D149" t="s">
         <v>24</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="N149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C150" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D150" t="s">
         <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="M150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C151" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D151" t="s">
         <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="J151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C152" t="s">
         <v>103</v>
@@ -14038,18 +14237,18 @@
         <v>24</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F152" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="L152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="C153" t="s">
         <v>103</v>
@@ -14058,18 +14257,18 @@
         <v>24</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F153" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="N153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C154" t="s">
         <v>103</v>
@@ -14078,18 +14277,18 @@
         <v>24</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="L154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C155" t="s">
         <v>103</v>
@@ -14098,15 +14297,18 @@
         <v>24</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="N155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C156" t="s">
         <v>103</v>
@@ -14115,18 +14317,18 @@
         <v>24</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="N156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C157" t="s">
         <v>103</v>
@@ -14135,18 +14337,18 @@
         <v>24</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F157" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="K157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C158" t="s">
         <v>103</v>
@@ -14155,18 +14357,18 @@
         <v>24</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="K158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C159" t="s">
         <v>103</v>
@@ -14175,18 +14377,18 @@
         <v>24</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F159" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="N159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="C160" t="s">
         <v>103</v>
@@ -14195,18 +14397,18 @@
         <v>24</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F160" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="N160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C161" t="s">
         <v>103</v>
@@ -14215,18 +14417,18 @@
         <v>24</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="K161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="C162" t="s">
         <v>103</v>
@@ -14235,18 +14437,18 @@
         <v>24</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="N162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C163" t="s">
         <v>103</v>
@@ -14255,18 +14457,18 @@
         <v>24</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="N163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C164" t="s">
         <v>103</v>
@@ -14275,18 +14477,18 @@
         <v>24</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="N164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C165" t="s">
         <v>103</v>
@@ -14295,18 +14497,18 @@
         <v>24</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C166" t="s">
         <v>103</v>
@@ -14315,18 +14517,18 @@
         <v>24</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F166" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G166" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C167" t="s">
         <v>103</v>
@@ -14335,18 +14537,18 @@
         <v>24</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="G167" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
         <v>103</v>
@@ -14355,18 +14557,18 @@
         <v>24</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C169" t="s">
         <v>103</v>
@@ -14375,18 +14577,18 @@
         <v>24</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="G169" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C170" t="s">
         <v>103</v>
@@ -14395,18 +14597,18 @@
         <v>24</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K170" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s">
         <v>103</v>
@@ -14415,594 +14617,594 @@
         <v>24</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="N171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C172" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D172" t="s">
         <v>24</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="O172" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C173" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D173" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C174" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D174" t="s">
         <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P174" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C175" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D175" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F175" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D176" t="s">
         <v>24</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C177" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="D177" t="s">
         <v>24</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F177" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C178" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="D178" t="s">
         <v>24</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F178" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C179" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D179" t="s">
         <v>24</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F179" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C180" t="s">
+        <v>45</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F180" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>37</v>
+        <v>200</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F181" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="L181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>39</v>
+        <v>210</v>
+      </c>
+      <c r="C182" t="s">
+        <v>45</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F182" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="G182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
+      </c>
+      <c r="C183" t="s">
+        <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F183" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>218</v>
+        <v>54</v>
+      </c>
+      <c r="C184" t="s">
+        <v>45</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F184" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="G184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>220</v>
+        <v>76</v>
+      </c>
+      <c r="C185" t="s">
+        <v>45</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F185" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="G185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
+      </c>
+      <c r="C186" t="s">
+        <v>64</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
+      </c>
+      <c r="C187" t="s">
+        <v>64</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="H187" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D188" t="s">
         <v>26</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F188" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D189" t="s">
         <v>26</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F189" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I189" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D190" t="s">
         <v>26</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F190" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="N190" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D191" t="s">
         <v>26</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F191" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="J191" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D192" t="s">
         <v>26</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F192" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J192" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F193" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="N193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D194" t="s">
         <v>26</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F194" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C195" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D195" t="s">
         <v>26</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F195" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="M195" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="C196" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D196" t="s">
         <v>26</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F196" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="M196" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="C197" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D197" t="s">
         <v>26</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F197" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="M197" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C198" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D198" t="s">
         <v>26</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F198" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="M198" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C199" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D199" t="s">
         <v>26</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F199" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="N199" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D200" t="s">
         <v>26</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F200" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N200" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="C201" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D201" t="s">
         <v>26</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F201" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="N201" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C202" t="s">
         <v>103</v>
@@ -15011,18 +15213,18 @@
         <v>26</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F202" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="N202" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="C203" t="s">
         <v>103</v>
@@ -15031,18 +15233,18 @@
         <v>26</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F203" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="N203" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C204" t="s">
         <v>103</v>
@@ -15051,18 +15253,18 @@
         <v>26</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F204" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="J204" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
         <v>103</v>
@@ -15071,18 +15273,18 @@
         <v>26</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F205" t="s">
+        <v>123</v>
+      </c>
+      <c r="M205" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C206" t="s">
         <v>103</v>
@@ -15091,18 +15293,18 @@
         <v>26</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F206" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="N206" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C207" t="s">
         <v>103</v>
@@ -15111,18 +15313,18 @@
         <v>26</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F207" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="J207" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="C208" t="s">
         <v>103</v>
@@ -15131,18 +15333,18 @@
         <v>26</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F208" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="L208" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C209" t="s">
         <v>103</v>
@@ -15151,18 +15353,18 @@
         <v>26</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F209" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="N209" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C210" t="s">
         <v>103</v>
@@ -15171,18 +15373,18 @@
         <v>26</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F210" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="N210" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C211" t="s">
         <v>103</v>
@@ -15191,18 +15393,18 @@
         <v>26</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F211" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="N211" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C212" t="s">
         <v>103</v>
@@ -15211,18 +15413,18 @@
         <v>26</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F212" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="L212" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>5</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C213" t="s">
         <v>103</v>
@@ -15231,18 +15433,18 @@
         <v>26</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F213" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="N213" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C214" t="s">
         <v>103</v>
@@ -15251,18 +15453,18 @@
         <v>26</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F214" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="K214" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C215" t="s">
         <v>103</v>
@@ -15271,18 +15473,18 @@
         <v>26</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F215" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="K215" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C216" t="s">
         <v>103</v>
@@ -15291,18 +15493,18 @@
         <v>26</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F216" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="N216" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>5</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C217" t="s">
         <v>103</v>
@@ -15311,18 +15513,18 @@
         <v>26</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F217" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="N217" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="C218" t="s">
         <v>103</v>
@@ -15331,18 +15533,18 @@
         <v>26</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F218" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="K218" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C219" t="s">
         <v>103</v>
@@ -15351,18 +15553,18 @@
         <v>26</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F219" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="N219" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="C220" t="s">
         <v>103</v>
@@ -15371,18 +15573,18 @@
         <v>26</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F220" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="N220" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C221" t="s">
         <v>103</v>
@@ -15391,18 +15593,18 @@
         <v>26</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F221" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="N221" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C222" t="s">
         <v>103</v>
@@ -15411,18 +15613,18 @@
         <v>26</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="F222" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="C223" t="s">
         <v>103</v>
@@ -15431,18 +15633,18 @@
         <v>26</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F223" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G223" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C224" t="s">
         <v>103</v>
@@ -15451,18 +15653,18 @@
         <v>26</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F224" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G224" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C225" t="s">
         <v>103</v>
@@ -15471,18 +15673,18 @@
         <v>26</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F225" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="G225" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C226" t="s">
         <v>103</v>
@@ -15491,18 +15693,18 @@
         <v>26</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F226" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K226" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C227" t="s">
         <v>103</v>
@@ -15511,18 +15713,18 @@
         <v>26</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F227" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="N227" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C228" t="s">
         <v>103</v>
@@ -15531,18 +15733,18 @@
         <v>26</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F228" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="K228" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="C229" t="s">
         <v>103</v>
@@ -15551,316 +15753,1224 @@
         <v>26</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F229" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="I229" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C230" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D230" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F230" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="O230" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C231" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D231" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F231" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P231" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C232" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D232" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F232" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P232" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C233" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D233" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F233" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C234" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D234" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F234" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C235" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="D235" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F235" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C236" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="D236" t="s">
         <v>26</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F236" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C237" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D237" t="s">
         <v>26</v>
       </c>
       <c r="E237" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C238" t="s">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
+        <v>264</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J238" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B239" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" t="s">
+        <v>45</v>
+      </c>
+      <c r="D239" t="s">
+        <v>264</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N239" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B240" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" t="s">
+        <v>45</v>
+      </c>
+      <c r="D240" t="s">
+        <v>264</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G240" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B241" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C241" t="s">
+        <v>45</v>
+      </c>
+      <c r="D241" t="s">
+        <v>264</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I241" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C242" t="s">
+        <v>45</v>
+      </c>
+      <c r="D242" t="s">
+        <v>264</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I242" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B243" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C243" t="s">
+        <v>64</v>
+      </c>
+      <c r="D243" t="s">
+        <v>264</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N243" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B244" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
+      </c>
+      <c r="D244" t="s">
+        <v>264</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N244" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C245" t="s">
+        <v>64</v>
+      </c>
+      <c r="D245" t="s">
+        <v>264</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G245" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B246" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C246" t="s">
+        <v>64</v>
+      </c>
+      <c r="D246" t="s">
+        <v>264</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I246" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B247" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C247" t="s">
+        <v>64</v>
+      </c>
+      <c r="D247" t="s">
+        <v>264</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I247" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B248" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C248" t="s">
+        <v>84</v>
+      </c>
+      <c r="D248" t="s">
+        <v>264</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M248" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C249" t="s">
+        <v>84</v>
+      </c>
+      <c r="D249" t="s">
+        <v>264</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N249" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C250" t="s">
+        <v>84</v>
+      </c>
+      <c r="D250" t="s">
+        <v>264</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N250" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B251" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C251" t="s">
+        <v>84</v>
+      </c>
+      <c r="D251" t="s">
+        <v>264</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F237" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>16</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D238" t="s">
-        <v>26</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F238" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>16</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D239" t="s">
-        <v>26</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F239" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>16</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D240" t="s">
-        <v>26</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F240" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>16</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D241" t="s">
-        <v>26</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F241" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>16</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D242" t="s">
-        <v>26</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F242" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>16</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D243" t="s">
-        <v>26</v>
-      </c>
-      <c r="E243" s="1" t="s">
+      <c r="J251" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B252" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C252" t="s">
+        <v>84</v>
+      </c>
+      <c r="D252" t="s">
+        <v>264</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L252" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C253" t="s">
+        <v>84</v>
+      </c>
+      <c r="D253" t="s">
+        <v>264</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J253" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B254" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C254" t="s">
+        <v>84</v>
+      </c>
+      <c r="D254" t="s">
+        <v>264</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J254" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B255" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C255" t="s">
+        <v>84</v>
+      </c>
+      <c r="D255" t="s">
+        <v>264</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F243" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>16</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D244" t="s">
-        <v>26</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F244" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>16</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D245" t="s">
-        <v>26</v>
-      </c>
-      <c r="E245" s="1" t="s">
+      <c r="N255" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B256" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C256" t="s">
+        <v>103</v>
+      </c>
+      <c r="D256" t="s">
+        <v>264</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F245" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F247">
-        <f>+COUNTIF(F2:F245,"Y")</f>
-        <v>58</v>
+      <c r="N256" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" t="s">
+        <v>264</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F257" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C258" t="s">
+        <v>103</v>
+      </c>
+      <c r="D258" t="s">
+        <v>264</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F258" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B259" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C259" t="s">
+        <v>103</v>
+      </c>
+      <c r="D259" t="s">
+        <v>264</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M259" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B260" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C260" t="s">
+        <v>103</v>
+      </c>
+      <c r="D260" t="s">
+        <v>264</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M260" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="261" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C261" t="s">
+        <v>103</v>
+      </c>
+      <c r="D261" t="s">
+        <v>264</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M261" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="262" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B262" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C262" t="s">
+        <v>103</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N262" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B263" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C263" t="s">
+        <v>103</v>
+      </c>
+      <c r="D263" t="s">
+        <v>264</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N263" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B264" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C264" t="s">
+        <v>103</v>
+      </c>
+      <c r="D264" t="s">
+        <v>264</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N264" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="265" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B265" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265" t="s">
+        <v>103</v>
+      </c>
+      <c r="D265" t="s">
+        <v>264</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N265" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="266" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B266" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C266" t="s">
+        <v>103</v>
+      </c>
+      <c r="D266" t="s">
+        <v>264</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M266" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="267" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B267" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C267" t="s">
+        <v>103</v>
+      </c>
+      <c r="D267" t="s">
+        <v>264</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L267" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="268" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B268" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C268" t="s">
+        <v>103</v>
+      </c>
+      <c r="D268" t="s">
+        <v>264</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N268" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="269" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B269" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C269" t="s">
+        <v>103</v>
+      </c>
+      <c r="D269" t="s">
+        <v>264</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L269" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="270" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B270" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C270" t="s">
+        <v>103</v>
+      </c>
+      <c r="D270" t="s">
+        <v>264</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N270" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="271" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B271" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271" t="s">
+        <v>103</v>
+      </c>
+      <c r="D271" t="s">
+        <v>264</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N271" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="272" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B272" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C272" t="s">
+        <v>103</v>
+      </c>
+      <c r="D272" t="s">
+        <v>264</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N272" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="273" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B273" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C273" t="s">
+        <v>103</v>
+      </c>
+      <c r="D273" t="s">
+        <v>264</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K273" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B274" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C274" t="s">
+        <v>103</v>
+      </c>
+      <c r="D274" t="s">
+        <v>264</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K274" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="275" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B275" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C275" t="s">
+        <v>103</v>
+      </c>
+      <c r="D275" t="s">
+        <v>264</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N275" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B276" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D276" t="s">
+        <v>264</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N276" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B277" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C277" t="s">
+        <v>103</v>
+      </c>
+      <c r="D277" t="s">
+        <v>264</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K277" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="278" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B278" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C278" t="s">
+        <v>103</v>
+      </c>
+      <c r="D278" t="s">
+        <v>264</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N278" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B279" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C279" t="s">
+        <v>103</v>
+      </c>
+      <c r="D279" t="s">
+        <v>264</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N279" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="280" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B280" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C280" t="s">
+        <v>103</v>
+      </c>
+      <c r="D280" t="s">
+        <v>264</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H280" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B281" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C281" t="s">
+        <v>103</v>
+      </c>
+      <c r="D281" t="s">
+        <v>264</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H281" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="282" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B282" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C282" t="s">
+        <v>103</v>
+      </c>
+      <c r="D282" t="s">
+        <v>264</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N282" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B283" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C283" t="s">
+        <v>103</v>
+      </c>
+      <c r="D283" t="s">
+        <v>264</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F283" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="284" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B284" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C284" t="s">
+        <v>103</v>
+      </c>
+      <c r="D284" t="s">
+        <v>264</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G284" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="285" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B285" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C285" t="s">
+        <v>103</v>
+      </c>
+      <c r="D285" t="s">
+        <v>264</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G285" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="286" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C286" t="s">
+        <v>103</v>
+      </c>
+      <c r="D286" t="s">
+        <v>264</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G286" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B287" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C287" t="s">
+        <v>103</v>
+      </c>
+      <c r="D287" t="s">
+        <v>264</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G287" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="288" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B288" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C288" t="s">
+        <v>103</v>
+      </c>
+      <c r="D288" t="s">
+        <v>264</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K288" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B289" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C289" t="s">
+        <v>103</v>
+      </c>
+      <c r="D289" t="s">
+        <v>264</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N289" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="290" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B290" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C290" t="s">
+        <v>103</v>
+      </c>
+      <c r="D290" t="s">
+        <v>264</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K290" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="17">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="17">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="388">
   <si>
     <t>Tools</t>
   </si>
@@ -944,6 +944,273 @@
   </si>
   <si>
     <t>6 Permission checks</t>
+  </si>
+  <si>
+    <t>Co-operative Bank</t>
+  </si>
+  <si>
+    <t>Found "setAllowFileAccess(true)" or not set(enabled by default) in WebView.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQLiteDatabase Transaction Deprecated Checking</t>
+  </si>
+  <si>
+    <t>External storage access not found.</t>
+  </si>
+  <si>
+    <t>No encoded Base64 String or Urls found.</t>
+  </si>
+  <si>
+    <t>Did not detect this app is checking the signature in the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google Cloud Messaging Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AndroidManifest Exported Components Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No exported components(except for Launcher) for receiving Android or outside applications' actions (AndroidManifest.xml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implicit Service Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AndroidManifest "intent-filter" Settings Checking</t>
+  </si>
+  <si>
+    <t>Did not detect this app is getting the "device id(IMEI)" by "TelephonyManager.getDeviceId()" approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-defined HOSTNAME VERIFIER checking OK</t>
+  </si>
+  <si>
+    <t>Permission 'android.permission.ACCESS_MOCK_LOCATION' sets correctly.</t>
+  </si>
+  <si>
+    <t>Tesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This app is using critical function 'Runtime.getRuntime().exec("...")'</t>
+  </si>
+  <si>
+    <t>URLs that are NOT under SSL (Total:3)</t>
+  </si>
+  <si>
+    <t>SSL Certificate Verification Checking:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dynamic Code Loading</t>
+  </si>
+  <si>
+    <t>Base64 String Encryption:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APK Installing Source Checking</t>
+  </si>
+  <si>
+    <t>KeyStore File Location:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did not find any possible BKS keystores or certificate keystore file</t>
+  </si>
+  <si>
+    <t>No security issues "MODE_WORLD_READABLE" or "MODE_WORLD_WRITEABLE" found on 'openOrCreateDatabase' or 'openOrCreateDatabase2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No dangerous implicit service</t>
+  </si>
+  <si>
+    <t>AndroidManifest "intent-filter" Settings Checkin</t>
+  </si>
+  <si>
+    <t>Self-defined HOSTNAME VERIFIER checking OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did not detect SSLSocketFactory by insecure method "getInsecure"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did not detect critical usage of "WebViewClient"(MITM Vulnerability)</t>
+  </si>
+  <si>
+    <t>JP Morgan</t>
+  </si>
+  <si>
+    <t>URLs that are NOT under SSL (Total:5):</t>
+  </si>
+  <si>
+    <t>DO NOT use "handler.proceed();" inside those methods in extended "WebViewClient"</t>
+  </si>
+  <si>
+    <t>Please make sure this app has the conditions to check the validation of SSL Certificate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WebView Local File Access Attacks Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The app may has the code checking for "root" permission, mounting filesystem operations or monitoring system</t>
+  </si>
+  <si>
+    <t>This app is not using critical function 'Runtime.getRuntime().exec("...")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ignore checking "SQLiteDatabase:beginTransactionNonExclusive" because your set minSdk &gt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This app is "NOT" using SQLite Encryption Extension (SEE) on Android </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android Debug Mode Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did not detect the vulnerability of "Fragment" dynamically loading into "PreferenceActivity" or "SherlockPreferenceActivity"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Base64 String Encryption</t>
+  </si>
+  <si>
+    <t>Ignore checking KeyStore protected by password or not because you're not using KeyStor</t>
+  </si>
+  <si>
+    <t>Ignore checking "http.keepAlive" because you're not using "HttpURLConnection" and min_Sdk &gt; 8.</t>
+  </si>
+  <si>
+    <t>KeyStore Type Checking:</t>
+  </si>
+  <si>
+    <t>AndroidManifest Dangerous ProtectionLevel of Permission Checkin</t>
+  </si>
+  <si>
+    <t>Implicit Service Checking:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No default or "normal" protection level customized permission found (AndroidManifest.xml).</t>
+  </si>
+  <si>
+    <t>AndroidManifest Exported Lost Prefix Checking:</t>
+  </si>
+  <si>
+    <t>No exported components that forgot to add "android:" prefix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No exported "ContentProvider" found (AndroidManifest.xml).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codes for Sending SMS:</t>
+  </si>
+  <si>
+    <t>AndroidManifest sharedUserId Checking:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This app does not use "android.uid.system" sharedUserId.</t>
+  </si>
+  <si>
+    <t>Nationwide</t>
+  </si>
+  <si>
+    <t>To ensure your app is secure, always use an explicit intent when starting a Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URLs that are NOT under SSL (Total:2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Found "exported" components(except for Launcher) for receiving Google's "Android" actions </t>
+  </si>
+  <si>
+    <t>Runtime Command Checking:</t>
+  </si>
+  <si>
+    <t>Ignore checking "SQLiteDatabase:beginTransactionNonExclusive" because your set minSdk &gt;= 11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This app is "NOT" using Android SQLite databases.</t>
+  </si>
+  <si>
+    <t>Dynamic Code Loading:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No dynamic code loading(DexClassLoader) found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External Storage Accessing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fragment Vulnerability Checking:</t>
+  </si>
+  <si>
+    <t>Framework - MonoDroid:</t>
+  </si>
+  <si>
+    <t>This app is NOT using MonoDroid Framework (http://xamarin.com/android).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HttpURLConnection Android Bug Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KeyStore Type Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Native Library Loading Checking</t>
+  </si>
+  <si>
+    <t>No native library loaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PermissionGroup in permission tag of AndroidManifest sets correctly.</t>
+  </si>
+  <si>
+    <t>AndroidManifest Normal ProtectionLevel of Permission Checking:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AndroidManifest Exported Lost Prefix Checking</t>
+  </si>
+  <si>
+    <t>AndroidManifest ContentProvider Exported Checking:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting IMEI and Device ID:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AndroidManifest sharedUserId Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-defined HOSTNAME VERIFIER checking OK.</t>
+  </si>
+  <si>
+    <t>ritical vulnerability "ALLOW_ALL_HOSTNAME_VERIFIER" field setting or "AllowAllHostnameVerifier" class instance not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SSL Implementation Checking (Insecure component):</t>
+  </si>
+  <si>
+    <t>SSL Implementation Checking (WebViewClient for WebView):</t>
+  </si>
+  <si>
+    <t>Did not detect critical usage of "WebViewClient"(MITM Vulnerability).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unnecessary Permission Checking:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Permission 'android.permission.ACCESS_MOCK_LOCATION' sets correctly.</t>
+  </si>
+  <si>
+    <t>Accessing the Internet Checking:</t>
+  </si>
+  <si>
+    <t>This app is using the Internet via HTTP protocol.</t>
+  </si>
+  <si>
+    <t>AndroidManifest System Use Permission Checking:</t>
+  </si>
+  <si>
+    <t>No system-level critical use-permission found.</t>
+  </si>
+  <si>
+    <t>WebView RCE Vulnerability Checking:</t>
+  </si>
+  <si>
+    <t>WebView addJavascriptInterface vulnerabilities not found.</t>
   </si>
 </sst>
 </file>
@@ -11240,12 +11507,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q290"/>
+  <dimension ref="A1:Q500"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
+      <selection pane="bottomLeft" activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11253,8 +11520,9 @@
     <col min="1" max="1" width="21"/>
     <col min="2" max="2" width="37.21875" style="1"/>
     <col min="3" max="3" width="25.33203125"/>
-    <col min="4" max="4" width="14.77734375"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.88671875" style="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="8.77734375"/>
@@ -15916,6 +16184,9 @@
       </c>
     </row>
     <row r="239" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
       <c r="B239" s="1" t="s">
         <v>52</v>
       </c>
@@ -15933,6 +16204,9 @@
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
       <c r="B240" s="1" t="s">
         <v>54</v>
       </c>
@@ -15949,7 +16223,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="241" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
       <c r="B241" s="1" t="s">
         <v>181</v>
       </c>
@@ -15966,7 +16243,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
       <c r="B242" s="1" t="s">
         <v>60</v>
       </c>
@@ -15983,7 +16263,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
       <c r="B243" s="1" t="s">
         <v>70</v>
       </c>
@@ -16000,7 +16283,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="244" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
       <c r="B244" s="1" t="s">
         <v>68</v>
       </c>
@@ -16017,7 +16303,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
       <c r="B245" s="1" t="s">
         <v>76</v>
       </c>
@@ -16034,7 +16323,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
       <c r="B246" s="1" t="s">
         <v>79</v>
       </c>
@@ -16051,7 +16343,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="247" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
       <c r="B247" s="1" t="s">
         <v>82</v>
       </c>
@@ -16068,7 +16363,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
       <c r="B248" s="1" t="s">
         <v>87</v>
       </c>
@@ -16085,7 +16383,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
       <c r="B249" s="1" t="s">
         <v>90</v>
       </c>
@@ -16102,7 +16403,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="250" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
       <c r="B250" s="1" t="s">
         <v>186</v>
       </c>
@@ -16119,7 +16423,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
       <c r="B251" s="1" t="s">
         <v>187</v>
       </c>
@@ -16136,7 +16443,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
       <c r="B252" s="1" t="s">
         <v>235</v>
       </c>
@@ -16153,7 +16463,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="253" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
       <c r="B253" s="1" t="s">
         <v>201</v>
       </c>
@@ -16170,7 +16483,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
       <c r="B254" s="1" t="s">
         <v>188</v>
       </c>
@@ -16187,7 +16503,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
       <c r="B255" s="1" t="s">
         <v>237</v>
       </c>
@@ -16204,7 +16523,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
       <c r="B256" s="1" t="s">
         <v>85</v>
       </c>
@@ -16221,7 +16543,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
       <c r="B257" s="1" t="s">
         <v>46</v>
       </c>
@@ -16238,7 +16563,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="258" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
       <c r="B258" s="1" t="s">
         <v>189</v>
       </c>
@@ -16255,7 +16583,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="259" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
       <c r="B259" s="1" t="s">
         <v>190</v>
       </c>
@@ -16272,7 +16603,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
       <c r="B260" s="1" t="s">
         <v>192</v>
       </c>
@@ -16289,7 +16623,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="261" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
       <c r="B261" s="1" t="s">
         <v>194</v>
       </c>
@@ -16306,7 +16643,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="262" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
       <c r="B262" s="1" t="s">
         <v>195</v>
       </c>
@@ -16323,7 +16663,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
       <c r="B263" s="1" t="s">
         <v>65</v>
       </c>
@@ -16340,7 +16683,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="264" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
       <c r="B264" s="1" t="s">
         <v>117</v>
       </c>
@@ -16357,7 +16703,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="265" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
       <c r="B265" s="1" t="s">
         <v>275</v>
       </c>
@@ -16374,7 +16723,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="266" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
       <c r="B266" s="1" t="s">
         <v>198</v>
       </c>
@@ -16391,7 +16743,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="267" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
       <c r="B267" s="1" t="s">
         <v>199</v>
       </c>
@@ -16408,7 +16763,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
       <c r="B268" s="1" t="s">
         <v>133</v>
       </c>
@@ -16425,7 +16783,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
       <c r="B269" s="1" t="s">
         <v>203</v>
       </c>
@@ -16442,7 +16803,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
       <c r="B270" s="1" t="s">
         <v>137</v>
       </c>
@@ -16459,7 +16823,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
       <c r="B271" s="1" t="s">
         <v>139</v>
       </c>
@@ -16476,7 +16843,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>101</v>
       </c>
@@ -16493,7 +16863,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="273" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>141</v>
       </c>
@@ -16510,7 +16883,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="274" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>143</v>
       </c>
@@ -16527,7 +16903,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
       <c r="B275" s="1" t="s">
         <v>204</v>
       </c>
@@ -16544,7 +16923,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="276" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
       <c r="B276" s="1" t="s">
         <v>147</v>
       </c>
@@ -16561,7 +16943,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="277" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
       <c r="B277" s="1" t="s">
         <v>149</v>
       </c>
@@ -16578,7 +16963,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="278" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
       <c r="B278" s="1" t="s">
         <v>151</v>
       </c>
@@ -16595,7 +16983,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="279" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
       <c r="B279" s="1" t="s">
         <v>153</v>
       </c>
@@ -16612,7 +17003,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="280" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
       <c r="B280" s="1" t="s">
         <v>183</v>
       </c>
@@ -16629,7 +17023,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="281" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
       <c r="B281" s="1" t="s">
         <v>184</v>
       </c>
@@ -16646,7 +17043,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="282" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
       <c r="B282" s="1" t="s">
         <v>155</v>
       </c>
@@ -16663,7 +17063,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
       <c r="B283" s="1" t="s">
         <v>209</v>
       </c>
@@ -16680,7 +17083,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="284" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
       <c r="B284" s="1" t="s">
         <v>210</v>
       </c>
@@ -16697,7 +17103,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="285" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
       <c r="B285" s="1" t="s">
         <v>228</v>
       </c>
@@ -16714,7 +17123,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="286" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
       <c r="B286" s="1" t="s">
         <v>212</v>
       </c>
@@ -16731,7 +17143,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
       <c r="B287" s="1" t="s">
         <v>281</v>
       </c>
@@ -16748,7 +17163,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="288" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
       <c r="B288" s="1" t="s">
         <v>168</v>
       </c>
@@ -16765,7 +17183,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
       <c r="B289" s="1" t="s">
         <v>170</v>
       </c>
@@ -16782,7 +17203,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="290" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>172</v>
       </c>
@@ -16796,6 +17220,4188 @@
         <v>173</v>
       </c>
       <c r="K290" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C291" t="s">
+        <v>45</v>
+      </c>
+      <c r="D291" t="s">
+        <v>299</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G291" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C292" t="s">
+        <v>45</v>
+      </c>
+      <c r="D292" t="s">
+        <v>299</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G292" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C293" t="s">
+        <v>45</v>
+      </c>
+      <c r="D293" t="s">
+        <v>299</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I293" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C294" t="s">
+        <v>64</v>
+      </c>
+      <c r="D294" t="s">
+        <v>299</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G294" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C295" t="s">
+        <v>64</v>
+      </c>
+      <c r="D295" t="s">
+        <v>299</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I295" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C296" t="s">
+        <v>64</v>
+      </c>
+      <c r="D296" t="s">
+        <v>299</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I296" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C297" t="s">
+        <v>84</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F297" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C298" t="s">
+        <v>84</v>
+      </c>
+      <c r="D298" t="s">
+        <v>299</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M298" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C299" t="s">
+        <v>84</v>
+      </c>
+      <c r="D299" t="s">
+        <v>299</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N299" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C300" t="s">
+        <v>103</v>
+      </c>
+      <c r="D300" t="s">
+        <v>299</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N300" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C301" t="s">
+        <v>103</v>
+      </c>
+      <c r="D301" t="s">
+        <v>299</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F301" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C302" t="s">
+        <v>103</v>
+      </c>
+      <c r="D302" t="s">
+        <v>299</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M302" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C303" t="s">
+        <v>103</v>
+      </c>
+      <c r="D303" t="s">
+        <v>299</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M303" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C304" t="s">
+        <v>103</v>
+      </c>
+      <c r="D304" t="s">
+        <v>299</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M304" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C305" t="s">
+        <v>103</v>
+      </c>
+      <c r="D305" t="s">
+        <v>299</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M305" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C306" t="s">
+        <v>103</v>
+      </c>
+      <c r="D306" t="s">
+        <v>299</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N306" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C307" t="s">
+        <v>103</v>
+      </c>
+      <c r="D307" t="s">
+        <v>299</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N307" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C308" t="s">
+        <v>103</v>
+      </c>
+      <c r="D308" t="s">
+        <v>299</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N308" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C309" t="s">
+        <v>103</v>
+      </c>
+      <c r="D309" t="s">
+        <v>299</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N309" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C310" t="s">
+        <v>103</v>
+      </c>
+      <c r="D310" t="s">
+        <v>299</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J310" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C311" t="s">
+        <v>103</v>
+      </c>
+      <c r="D311" t="s">
+        <v>299</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M311" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C312" t="s">
+        <v>103</v>
+      </c>
+      <c r="D312" t="s">
+        <v>299</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J312" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C313" t="s">
+        <v>103</v>
+      </c>
+      <c r="D313" t="s">
+        <v>299</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J313" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C314" t="s">
+        <v>103</v>
+      </c>
+      <c r="D314" t="s">
+        <v>299</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L314" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C315" t="s">
+        <v>103</v>
+      </c>
+      <c r="D315" t="s">
+        <v>299</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L315" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C316" t="s">
+        <v>103</v>
+      </c>
+      <c r="D316" t="s">
+        <v>299</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J316" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C317" t="s">
+        <v>103</v>
+      </c>
+      <c r="D317" t="s">
+        <v>299</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J317" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C318" t="s">
+        <v>103</v>
+      </c>
+      <c r="D318" t="s">
+        <v>299</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N318" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C319" t="s">
+        <v>103</v>
+      </c>
+      <c r="D319" t="s">
+        <v>299</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L319" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C320" t="s">
+        <v>103</v>
+      </c>
+      <c r="D320" t="s">
+        <v>299</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N320" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C321" t="s">
+        <v>103</v>
+      </c>
+      <c r="D321" t="s">
+        <v>299</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N321" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C322" t="s">
+        <v>103</v>
+      </c>
+      <c r="D322" t="s">
+        <v>299</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K322" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C323" t="s">
+        <v>103</v>
+      </c>
+      <c r="D323" t="s">
+        <v>299</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N323" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C324" t="s">
+        <v>103</v>
+      </c>
+      <c r="D324" t="s">
+        <v>299</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K324" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C325" t="s">
+        <v>103</v>
+      </c>
+      <c r="D325" t="s">
+        <v>299</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C326" t="s">
+        <v>103</v>
+      </c>
+      <c r="D326" t="s">
+        <v>299</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K326" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C327" t="s">
+        <v>103</v>
+      </c>
+      <c r="D327" t="s">
+        <v>299</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C328" t="s">
+        <v>103</v>
+      </c>
+      <c r="D328" t="s">
+        <v>299</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N328" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C329" t="s">
+        <v>103</v>
+      </c>
+      <c r="D329" t="s">
+        <v>299</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K329" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C330" t="s">
+        <v>103</v>
+      </c>
+      <c r="D330" t="s">
+        <v>299</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C331" t="s">
+        <v>103</v>
+      </c>
+      <c r="D331" t="s">
+        <v>299</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C332" t="s">
+        <v>103</v>
+      </c>
+      <c r="D332" t="s">
+        <v>299</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H332" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C333" t="s">
+        <v>103</v>
+      </c>
+      <c r="D333" t="s">
+        <v>299</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H333" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C334" t="s">
+        <v>103</v>
+      </c>
+      <c r="D334" t="s">
+        <v>299</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N334" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C335" t="s">
+        <v>103</v>
+      </c>
+      <c r="D335" t="s">
+        <v>299</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N335" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C336" t="s">
+        <v>103</v>
+      </c>
+      <c r="D336" t="s">
+        <v>299</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G336" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C337" t="s">
+        <v>103</v>
+      </c>
+      <c r="D337" t="s">
+        <v>299</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G337" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C338" t="s">
+        <v>103</v>
+      </c>
+      <c r="D338" t="s">
+        <v>299</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G338" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C339" t="s">
+        <v>103</v>
+      </c>
+      <c r="D339" t="s">
+        <v>299</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G339" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C340" t="s">
+        <v>103</v>
+      </c>
+      <c r="D340" t="s">
+        <v>299</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K340" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>5</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C341" t="s">
+        <v>103</v>
+      </c>
+      <c r="D341" t="s">
+        <v>299</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N341" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C342" t="s">
+        <v>103</v>
+      </c>
+      <c r="D342" t="s">
+        <v>299</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K342" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C343" t="s">
+        <v>45</v>
+      </c>
+      <c r="D343" t="s">
+        <v>313</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F343" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C344" t="s">
+        <v>45</v>
+      </c>
+      <c r="D344" t="s">
+        <v>313</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L344" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C345" t="s">
+        <v>45</v>
+      </c>
+      <c r="D345" t="s">
+        <v>313</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G345" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C346" t="s">
+        <v>45</v>
+      </c>
+      <c r="D346" t="s">
+        <v>313</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I346" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C347" t="s">
+        <v>64</v>
+      </c>
+      <c r="D347" t="s">
+        <v>313</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N347" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C348" t="s">
+        <v>64</v>
+      </c>
+      <c r="D348" t="s">
+        <v>313</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C349" t="s">
+        <v>64</v>
+      </c>
+      <c r="D349" t="s">
+        <v>313</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H349" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C350" t="s">
+        <v>64</v>
+      </c>
+      <c r="D350" t="s">
+        <v>313</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H350" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C351" t="s">
+        <v>64</v>
+      </c>
+      <c r="D351" t="s">
+        <v>313</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G351" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C352" t="s">
+        <v>64</v>
+      </c>
+      <c r="D352" t="s">
+        <v>313</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I352" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C353" t="s">
+        <v>64</v>
+      </c>
+      <c r="D353" t="s">
+        <v>313</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I353" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C354" t="s">
+        <v>84</v>
+      </c>
+      <c r="D354" t="s">
+        <v>313</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M354" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C355" t="s">
+        <v>84</v>
+      </c>
+      <c r="D355" t="s">
+        <v>313</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N355" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C356" t="s">
+        <v>84</v>
+      </c>
+      <c r="D356" t="s">
+        <v>313</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J356" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C357" t="s">
+        <v>84</v>
+      </c>
+      <c r="D357" t="s">
+        <v>313</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J357" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C358" t="s">
+        <v>84</v>
+      </c>
+      <c r="D358" t="s">
+        <v>313</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N358" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C359" t="s">
+        <v>103</v>
+      </c>
+      <c r="D359" t="s">
+        <v>313</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N359" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>5</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C360" t="s">
+        <v>103</v>
+      </c>
+      <c r="D360" t="s">
+        <v>313</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F360" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C361" t="s">
+        <v>103</v>
+      </c>
+      <c r="D361" t="s">
+        <v>313</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M361" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C362" t="s">
+        <v>103</v>
+      </c>
+      <c r="D362" t="s">
+        <v>313</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M362" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C363" t="s">
+        <v>103</v>
+      </c>
+      <c r="D363" t="s">
+        <v>313</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M363" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C364" t="s">
+        <v>103</v>
+      </c>
+      <c r="D364" t="s">
+        <v>313</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N364" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C365" t="s">
+        <v>103</v>
+      </c>
+      <c r="D365" t="s">
+        <v>313</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N365" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C366" t="s">
+        <v>103</v>
+      </c>
+      <c r="D366" t="s">
+        <v>313</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N366" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C367" t="s">
+        <v>103</v>
+      </c>
+      <c r="D367" t="s">
+        <v>313</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N367" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C368" t="s">
+        <v>103</v>
+      </c>
+      <c r="D368" t="s">
+        <v>313</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J368" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C369" t="s">
+        <v>103</v>
+      </c>
+      <c r="D369" t="s">
+        <v>313</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J369" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C370" t="s">
+        <v>103</v>
+      </c>
+      <c r="D370" t="s">
+        <v>313</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J370" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C371" t="s">
+        <v>103</v>
+      </c>
+      <c r="D371" t="s">
+        <v>313</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J371" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C372" t="s">
+        <v>103</v>
+      </c>
+      <c r="D372" t="s">
+        <v>313</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L372" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C373" t="s">
+        <v>103</v>
+      </c>
+      <c r="D373" t="s">
+        <v>313</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N373" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C374" t="s">
+        <v>103</v>
+      </c>
+      <c r="D374" t="s">
+        <v>313</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L374" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C375" t="s">
+        <v>103</v>
+      </c>
+      <c r="D375" t="s">
+        <v>313</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N375" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C376" t="s">
+        <v>103</v>
+      </c>
+      <c r="D376" t="s">
+        <v>313</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N376" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C377" t="s">
+        <v>103</v>
+      </c>
+      <c r="D377" t="s">
+        <v>313</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N377" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C378" t="s">
+        <v>103</v>
+      </c>
+      <c r="D378" t="s">
+        <v>313</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K378" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C379" t="s">
+        <v>103</v>
+      </c>
+      <c r="D379" t="s">
+        <v>313</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K379" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C380" t="s">
+        <v>103</v>
+      </c>
+      <c r="D380" t="s">
+        <v>313</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C381" t="s">
+        <v>103</v>
+      </c>
+      <c r="D381" t="s">
+        <v>313</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N381" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C382" t="s">
+        <v>103</v>
+      </c>
+      <c r="D382" t="s">
+        <v>313</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K382" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C383" t="s">
+        <v>103</v>
+      </c>
+      <c r="D383" t="s">
+        <v>313</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C384" t="s">
+        <v>103</v>
+      </c>
+      <c r="D384" t="s">
+        <v>313</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C385" t="s">
+        <v>103</v>
+      </c>
+      <c r="D385" t="s">
+        <v>313</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N385" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C386" t="s">
+        <v>103</v>
+      </c>
+      <c r="D386" t="s">
+        <v>313</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N386" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C387" t="s">
+        <v>103</v>
+      </c>
+      <c r="D387" t="s">
+        <v>313</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G387" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C388" t="s">
+        <v>103</v>
+      </c>
+      <c r="D388" t="s">
+        <v>313</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G388" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C389" t="s">
+        <v>103</v>
+      </c>
+      <c r="D389" t="s">
+        <v>313</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G389" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>5</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C390" t="s">
+        <v>103</v>
+      </c>
+      <c r="D390" t="s">
+        <v>313</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G390" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C391" t="s">
+        <v>103</v>
+      </c>
+      <c r="D391" t="s">
+        <v>313</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G391" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C392" t="s">
+        <v>103</v>
+      </c>
+      <c r="D392" t="s">
+        <v>313</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K392" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C393" t="s">
+        <v>103</v>
+      </c>
+      <c r="D393" t="s">
+        <v>313</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N393" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C394" t="s">
+        <v>103</v>
+      </c>
+      <c r="D394" t="s">
+        <v>313</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K394" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C395" t="s">
+        <v>45</v>
+      </c>
+      <c r="D395" t="s">
+        <v>328</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N395" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C396" t="s">
+        <v>45</v>
+      </c>
+      <c r="D396" t="s">
+        <v>328</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G396" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C397" t="s">
+        <v>45</v>
+      </c>
+      <c r="D397" t="s">
+        <v>328</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G397" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C398" t="s">
+        <v>45</v>
+      </c>
+      <c r="D398" t="s">
+        <v>328</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I398" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C399" t="s">
+        <v>64</v>
+      </c>
+      <c r="D399" t="s">
+        <v>328</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H399" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C400" t="s">
+        <v>64</v>
+      </c>
+      <c r="D400" t="s">
+        <v>328</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H400" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C401" t="s">
+        <v>64</v>
+      </c>
+      <c r="D401" t="s">
+        <v>328</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G401" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C402" t="s">
+        <v>64</v>
+      </c>
+      <c r="D402" t="s">
+        <v>328</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I402" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C403" t="s">
+        <v>64</v>
+      </c>
+      <c r="D403" t="s">
+        <v>328</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I403" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C404" t="s">
+        <v>84</v>
+      </c>
+      <c r="D404" t="s">
+        <v>328</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F404" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C405" t="s">
+        <v>84</v>
+      </c>
+      <c r="D405" t="s">
+        <v>328</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N405" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D406" t="s">
+        <v>328</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J406" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C407" t="s">
+        <v>84</v>
+      </c>
+      <c r="D407" t="s">
+        <v>328</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J407" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C408" t="s">
+        <v>84</v>
+      </c>
+      <c r="D408" t="s">
+        <v>328</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J408" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C409" t="s">
+        <v>84</v>
+      </c>
+      <c r="D409" t="s">
+        <v>328</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N409" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C410" t="s">
+        <v>103</v>
+      </c>
+      <c r="D410" t="s">
+        <v>328</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N410" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C411" t="s">
+        <v>103</v>
+      </c>
+      <c r="D411" t="s">
+        <v>328</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F411" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C412" t="s">
+        <v>103</v>
+      </c>
+      <c r="D412" t="s">
+        <v>328</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M412" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C413" t="s">
+        <v>103</v>
+      </c>
+      <c r="D413" t="s">
+        <v>328</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M413" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C414" t="s">
+        <v>103</v>
+      </c>
+      <c r="D414" t="s">
+        <v>328</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M414" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C415" t="s">
+        <v>103</v>
+      </c>
+      <c r="D415" t="s">
+        <v>328</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M415" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C416" t="s">
+        <v>103</v>
+      </c>
+      <c r="D416" t="s">
+        <v>328</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C417" t="s">
+        <v>103</v>
+      </c>
+      <c r="D417" t="s">
+        <v>328</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C418" t="s">
+        <v>103</v>
+      </c>
+      <c r="D418" t="s">
+        <v>328</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C419" t="s">
+        <v>103</v>
+      </c>
+      <c r="D419" t="s">
+        <v>328</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C420" t="s">
+        <v>103</v>
+      </c>
+      <c r="D420" t="s">
+        <v>328</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C421" t="s">
+        <v>103</v>
+      </c>
+      <c r="D421" t="s">
+        <v>328</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C422" t="s">
+        <v>103</v>
+      </c>
+      <c r="D422" t="s">
+        <v>328</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M422" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C423" t="s">
+        <v>103</v>
+      </c>
+      <c r="D423" t="s">
+        <v>328</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J423" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C424" t="s">
+        <v>103</v>
+      </c>
+      <c r="D424" t="s">
+        <v>328</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L424" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C425" t="s">
+        <v>103</v>
+      </c>
+      <c r="D425" t="s">
+        <v>328</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L425" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C426" t="s">
+        <v>103</v>
+      </c>
+      <c r="D426" t="s">
+        <v>328</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N426" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C427" t="s">
+        <v>103</v>
+      </c>
+      <c r="D427" t="s">
+        <v>328</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L427" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C428" t="s">
+        <v>103</v>
+      </c>
+      <c r="D428" t="s">
+        <v>328</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N428" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C429" t="s">
+        <v>103</v>
+      </c>
+      <c r="D429" t="s">
+        <v>328</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N429" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C430" t="s">
+        <v>103</v>
+      </c>
+      <c r="D430" t="s">
+        <v>328</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K430" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>5</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C431" t="s">
+        <v>103</v>
+      </c>
+      <c r="D431" t="s">
+        <v>328</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C432" t="s">
+        <v>103</v>
+      </c>
+      <c r="D432" t="s">
+        <v>328</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K432" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C433" t="s">
+        <v>103</v>
+      </c>
+      <c r="D433" t="s">
+        <v>328</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C434" t="s">
+        <v>103</v>
+      </c>
+      <c r="D434" t="s">
+        <v>328</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N434" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C435" t="s">
+        <v>103</v>
+      </c>
+      <c r="D435" t="s">
+        <v>328</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K435" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C436" t="s">
+        <v>103</v>
+      </c>
+      <c r="D436" t="s">
+        <v>328</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C437" t="s">
+        <v>103</v>
+      </c>
+      <c r="D437" t="s">
+        <v>328</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C438" t="s">
+        <v>103</v>
+      </c>
+      <c r="D438" t="s">
+        <v>328</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N438" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C439" t="s">
+        <v>103</v>
+      </c>
+      <c r="D439" t="s">
+        <v>328</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N439" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>5</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C440" t="s">
+        <v>103</v>
+      </c>
+      <c r="D440" t="s">
+        <v>328</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G440" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C441" t="s">
+        <v>103</v>
+      </c>
+      <c r="D441" t="s">
+        <v>328</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G441" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C442" t="s">
+        <v>103</v>
+      </c>
+      <c r="D442" t="s">
+        <v>328</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G442" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C443" t="s">
+        <v>103</v>
+      </c>
+      <c r="D443" t="s">
+        <v>328</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G443" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C444" t="s">
+        <v>103</v>
+      </c>
+      <c r="D444" t="s">
+        <v>328</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G444" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C445" t="s">
+        <v>103</v>
+      </c>
+      <c r="D445" t="s">
+        <v>328</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K445" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C446" t="s">
+        <v>103</v>
+      </c>
+      <c r="D446" t="s">
+        <v>328</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N446" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C447" t="s">
+        <v>103</v>
+      </c>
+      <c r="D447" t="s">
+        <v>328</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K447" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C448" t="s">
+        <v>45</v>
+      </c>
+      <c r="D448" t="s">
+        <v>352</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N448" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C449" t="s">
+        <v>45</v>
+      </c>
+      <c r="D449" t="s">
+        <v>352</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G449" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C450" t="s">
+        <v>64</v>
+      </c>
+      <c r="D450" t="s">
+        <v>352</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q450" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C451" t="s">
+        <v>64</v>
+      </c>
+      <c r="D451" t="s">
+        <v>352</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H451" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C452" t="s">
+        <v>64</v>
+      </c>
+      <c r="D452" t="s">
+        <v>352</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G452" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C453" t="s">
+        <v>64</v>
+      </c>
+      <c r="D453" t="s">
+        <v>352</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I453" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C454" t="s">
+        <v>64</v>
+      </c>
+      <c r="D454" t="s">
+        <v>352</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I454" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C455" t="s">
+        <v>84</v>
+      </c>
+      <c r="D455" t="s">
+        <v>352</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N455" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="456" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C456" t="s">
+        <v>84</v>
+      </c>
+      <c r="D456" t="s">
+        <v>352</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J456" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C457" t="s">
+        <v>84</v>
+      </c>
+      <c r="D457" t="s">
+        <v>352</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J457" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C458" t="s">
+        <v>84</v>
+      </c>
+      <c r="D458" t="s">
+        <v>352</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C459" t="s">
+        <v>103</v>
+      </c>
+      <c r="D459" t="s">
+        <v>352</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N459" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C460" t="s">
+        <v>103</v>
+      </c>
+      <c r="D460" t="s">
+        <v>352</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F460" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="461" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C461" t="s">
+        <v>103</v>
+      </c>
+      <c r="D461" t="s">
+        <v>352</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F461" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="462" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C462" t="s">
+        <v>103</v>
+      </c>
+      <c r="D462" t="s">
+        <v>352</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M462" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="463" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C463" t="s">
+        <v>103</v>
+      </c>
+      <c r="D463" t="s">
+        <v>352</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M463" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="464" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C464" t="s">
+        <v>103</v>
+      </c>
+      <c r="D464" t="s">
+        <v>352</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M464" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C465" t="s">
+        <v>103</v>
+      </c>
+      <c r="D465" t="s">
+        <v>352</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M465" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C466" t="s">
+        <v>103</v>
+      </c>
+      <c r="D466" t="s">
+        <v>352</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N466" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C467" t="s">
+        <v>103</v>
+      </c>
+      <c r="D467" t="s">
+        <v>352</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N467" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C468" t="s">
+        <v>103</v>
+      </c>
+      <c r="D468" t="s">
+        <v>352</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N468" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C469" t="s">
+        <v>103</v>
+      </c>
+      <c r="D469" t="s">
+        <v>352</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N469" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C470" t="s">
+        <v>103</v>
+      </c>
+      <c r="D470" t="s">
+        <v>352</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N470" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C471" t="s">
+        <v>103</v>
+      </c>
+      <c r="D471" t="s">
+        <v>352</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M471" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D472" t="s">
+        <v>352</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M472" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C473" t="s">
+        <v>103</v>
+      </c>
+      <c r="D473" t="s">
+        <v>352</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J473" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C474" t="s">
+        <v>103</v>
+      </c>
+      <c r="D474" t="s">
+        <v>352</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J474" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C475" t="s">
+        <v>103</v>
+      </c>
+      <c r="D475" t="s">
+        <v>352</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L475" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C476" t="s">
+        <v>103</v>
+      </c>
+      <c r="D476" t="s">
+        <v>352</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L476" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C477" t="s">
+        <v>103</v>
+      </c>
+      <c r="D477" t="s">
+        <v>352</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N477" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C478" t="s">
+        <v>103</v>
+      </c>
+      <c r="D478" t="s">
+        <v>352</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L478" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C479" t="s">
+        <v>103</v>
+      </c>
+      <c r="D479" t="s">
+        <v>352</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N479" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C480" t="s">
+        <v>103</v>
+      </c>
+      <c r="D480" t="s">
+        <v>352</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N480" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C481" t="s">
+        <v>103</v>
+      </c>
+      <c r="D481" t="s">
+        <v>352</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N481" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C482" t="s">
+        <v>103</v>
+      </c>
+      <c r="D482" t="s">
+        <v>352</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N482" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C483" t="s">
+        <v>103</v>
+      </c>
+      <c r="D483" t="s">
+        <v>352</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K483" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C484" t="s">
+        <v>103</v>
+      </c>
+      <c r="D484" t="s">
+        <v>352</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K484" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C485" t="s">
+        <v>103</v>
+      </c>
+      <c r="D485" t="s">
+        <v>352</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N485" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C486" t="s">
+        <v>103</v>
+      </c>
+      <c r="D486" t="s">
+        <v>352</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K486" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C487" t="s">
+        <v>103</v>
+      </c>
+      <c r="D487" t="s">
+        <v>352</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C488" t="s">
+        <v>103</v>
+      </c>
+      <c r="D488" t="s">
+        <v>352</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q488" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C489" t="s">
+        <v>103</v>
+      </c>
+      <c r="D489" t="s">
+        <v>352</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H489" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C490" t="s">
+        <v>103</v>
+      </c>
+      <c r="D490" t="s">
+        <v>352</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N490" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C491" t="s">
+        <v>103</v>
+      </c>
+      <c r="D491" t="s">
+        <v>352</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N491" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C492" t="s">
+        <v>103</v>
+      </c>
+      <c r="D492" t="s">
+        <v>352</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G492" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C493" t="s">
+        <v>103</v>
+      </c>
+      <c r="D493" t="s">
+        <v>352</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G493" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C494" t="s">
+        <v>103</v>
+      </c>
+      <c r="D494" t="s">
+        <v>352</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G494" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>5</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C495" t="s">
+        <v>103</v>
+      </c>
+      <c r="D495" t="s">
+        <v>352</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N495" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>5</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C496" t="s">
+        <v>103</v>
+      </c>
+      <c r="D496" t="s">
+        <v>352</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I496" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C497" t="s">
+        <v>103</v>
+      </c>
+      <c r="D497" t="s">
+        <v>352</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K497" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C498" t="s">
+        <v>103</v>
+      </c>
+      <c r="D498" t="s">
+        <v>352</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N498" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C499" t="s">
+        <v>103</v>
+      </c>
+      <c r="D499" t="s">
+        <v>352</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K499" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C500" t="s">
+        <v>103</v>
+      </c>
+      <c r="D500" t="s">
+        <v>352</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I500" t="s">
         <v>185</v>
       </c>
     </row>
@@ -16809,7 +21415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
